--- a/WayGame/jiang/parsheet/ngparsheet.xlsx
+++ b/WayGame/jiang/parsheet/ngparsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry_hsiesh/Slot/WayGame/jiang/parsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34CB507-30B4-874D-AFE8-258AD1085976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F6637-3D4C-2849-B7C5-10535485871D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19000" yWindow="460" windowWidth="19000" windowHeight="21140" xr2:uid="{13BB5AA7-1582-6F4B-9695-E5E1C1D8F7F8}"/>
+    <workbookView xWindow="-23780" yWindow="460" windowWidth="17880" windowHeight="21140" activeTab="4" xr2:uid="{13BB5AA7-1582-6F4B-9695-E5E1C1D8F7F8}"/>
   </bookViews>
   <sheets>
     <sheet name="rtp965" sheetId="1" r:id="rId1"/>
@@ -318,17 +318,21 @@
       <sheetName val="OverView"/>
       <sheetName val="總數據"/>
       <sheetName val="權重表"/>
+      <sheetName val="NG_bonus count"/>
+      <sheetName val="FG_bonus count"/>
+      <sheetName val="工作表1"/>
       <sheetName val="243way_Regular Symbol"/>
+      <sheetName val="243way_PayCombo"/>
       <sheetName val="FG_243way_Regular Symbol"/>
+      <sheetName val="FG_243way_PayCombo"/>
       <sheetName val="R1R2appear wild"/>
       <sheetName val="243way_RegularＸ_W()"/>
-      <sheetName val="243way_PayCombo"/>
+      <sheetName val="576way_RegularＸ_W()"/>
+      <sheetName val="1125way_RegularＸ_W()"/>
       <sheetName val="243way_PayCombo (2wild)"/>
       <sheetName val="576way_PayCombo (2wild)"/>
       <sheetName val="1125way_PayCombo (2wild)"/>
-      <sheetName val="576way_RegularＸ_W()"/>
       <sheetName val="576way_Regular Symbol(2wild)"/>
-      <sheetName val="1125way_RegularＸ_W()"/>
       <sheetName val="1125way_Regular Symbol(2wild)"/>
       <sheetName val="BNRegularＸ_W()"/>
       <sheetName val="BNRegular Symbol"/>
@@ -336,7 +340,6 @@
       <sheetName val="BN_PayCombo"/>
       <sheetName val="FG_R1R2appear wild"/>
       <sheetName val="FG_243way_RegularＸ_W()"/>
-      <sheetName val="FG_243way_PayCombo"/>
       <sheetName val="FG_243way_PayCombo (2wild)"/>
       <sheetName val="FG_576way_PayCombo (2wild)"/>
       <sheetName val="FG_1125way_PayCombo (2wild)"/>
@@ -363,13 +366,13 @@
             <v>0</v>
           </cell>
           <cell r="E51">
+            <v>50</v>
+          </cell>
+          <cell r="F51">
             <v>100</v>
           </cell>
-          <cell r="F51">
+          <cell r="G51">
             <v>200</v>
-          </cell>
-          <cell r="G51">
-            <v>800</v>
           </cell>
         </row>
         <row r="52">
@@ -383,13 +386,13 @@
             <v>0</v>
           </cell>
           <cell r="E52">
-            <v>100</v>
+            <v>25</v>
           </cell>
           <cell r="F52">
-            <v>200</v>
+            <v>50</v>
           </cell>
           <cell r="G52">
-            <v>800</v>
+            <v>125</v>
           </cell>
         </row>
         <row r="53">
@@ -403,13 +406,13 @@
             <v>0</v>
           </cell>
           <cell r="E53">
+            <v>15</v>
+          </cell>
+          <cell r="F53">
             <v>50</v>
           </cell>
-          <cell r="F53">
+          <cell r="G53">
             <v>100</v>
-          </cell>
-          <cell r="G53">
-            <v>300</v>
           </cell>
         </row>
         <row r="54">
@@ -423,13 +426,13 @@
             <v>0</v>
           </cell>
           <cell r="E54">
+            <v>15</v>
+          </cell>
+          <cell r="F54">
             <v>50</v>
           </cell>
-          <cell r="F54">
+          <cell r="G54">
             <v>100</v>
-          </cell>
-          <cell r="G54">
-            <v>300</v>
           </cell>
         </row>
         <row r="55">
@@ -443,13 +446,13 @@
             <v>0</v>
           </cell>
           <cell r="E55">
-            <v>30</v>
+            <v>15</v>
           </cell>
           <cell r="F55">
-            <v>60</v>
+            <v>50</v>
           </cell>
           <cell r="G55">
-            <v>200</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="56">
@@ -463,10 +466,10 @@
             <v>0</v>
           </cell>
           <cell r="E56">
-            <v>5</v>
+            <v>10</v>
           </cell>
           <cell r="F56">
-            <v>10</v>
+            <v>25</v>
           </cell>
           <cell r="G56">
             <v>50</v>
@@ -483,10 +486,10 @@
             <v>0</v>
           </cell>
           <cell r="E57">
-            <v>5</v>
+            <v>10</v>
           </cell>
           <cell r="F57">
-            <v>10</v>
+            <v>25</v>
           </cell>
           <cell r="G57">
             <v>50</v>
@@ -509,7 +512,7 @@
             <v>10</v>
           </cell>
           <cell r="G58">
-            <v>50</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="59">
@@ -529,7 +532,7 @@
             <v>10</v>
           </cell>
           <cell r="G59">
-            <v>50</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="60">
@@ -549,7 +552,7 @@
             <v>10</v>
           </cell>
           <cell r="G60">
-            <v>50</v>
+            <v>25</v>
           </cell>
         </row>
       </sheetData>
@@ -557,47 +560,47 @@
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2">
-            <v>50</v>
+            <v>40</v>
           </cell>
           <cell r="C2">
-            <v>25</v>
+            <v>45</v>
           </cell>
           <cell r="D2">
-            <v>25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>89</v>
+            <v>90</v>
           </cell>
           <cell r="C6">
-            <v>10</v>
+            <v>5</v>
           </cell>
           <cell r="D6">
-            <v>1</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>0.5</v>
+            <v>2</v>
           </cell>
           <cell r="C11">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="D11">
-            <v>1.5</v>
+            <v>5</v>
           </cell>
           <cell r="E11">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="F11">
-            <v>4</v>
+            <v>10</v>
           </cell>
           <cell r="G11">
-            <v>6</v>
+            <v>15</v>
           </cell>
           <cell r="H11">
-            <v>10</v>
+            <v>20</v>
           </cell>
           <cell r="I11">
             <v>0</v>
@@ -605,25 +608,25 @@
         </row>
         <row r="12">
           <cell r="B12">
-            <v>25</v>
+            <v>100</v>
           </cell>
           <cell r="C12">
-            <v>50</v>
+            <v>150</v>
           </cell>
           <cell r="D12">
-            <v>75</v>
+            <v>250</v>
           </cell>
           <cell r="E12">
-            <v>100</v>
+            <v>300</v>
           </cell>
           <cell r="F12">
-            <v>200</v>
+            <v>500</v>
           </cell>
           <cell r="G12">
-            <v>300</v>
+            <v>750</v>
           </cell>
           <cell r="H12">
-            <v>500</v>
+            <v>1000</v>
           </cell>
           <cell r="I12">
             <v>0</v>
@@ -631,25 +634,25 @@
         </row>
         <row r="13">
           <cell r="B13">
-            <v>5</v>
+            <v>10</v>
           </cell>
           <cell r="C13">
-            <v>5</v>
+            <v>54</v>
           </cell>
           <cell r="D13">
-            <v>15</v>
+            <v>20</v>
           </cell>
           <cell r="E13">
-            <v>35</v>
+            <v>3</v>
           </cell>
           <cell r="F13">
-            <v>25</v>
+            <v>11</v>
           </cell>
           <cell r="G13">
-            <v>10</v>
+            <v>1</v>
           </cell>
           <cell r="H13">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="I13">
             <v>0</v>
@@ -657,25 +660,22 @@
         </row>
         <row r="18">
           <cell r="B18">
-            <v>0.5</v>
+            <v>2</v>
           </cell>
           <cell r="C18">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="D18">
-            <v>1.5</v>
+            <v>5</v>
           </cell>
           <cell r="E18">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="F18">
-            <v>4</v>
+            <v>10</v>
           </cell>
           <cell r="G18">
-            <v>6</v>
-          </cell>
-          <cell r="H18">
-            <v>10</v>
+            <v>15</v>
           </cell>
           <cell r="I18">
             <v>0</v>
@@ -683,25 +683,25 @@
         </row>
         <row r="19">
           <cell r="B19">
-            <v>25</v>
+            <v>100</v>
           </cell>
           <cell r="C19">
-            <v>50</v>
+            <v>150</v>
           </cell>
           <cell r="D19">
-            <v>75</v>
+            <v>250</v>
           </cell>
           <cell r="E19">
-            <v>100</v>
+            <v>300</v>
           </cell>
           <cell r="F19">
-            <v>200</v>
+            <v>500</v>
           </cell>
           <cell r="G19">
-            <v>300</v>
+            <v>750</v>
           </cell>
           <cell r="H19">
-            <v>500</v>
+            <v>1000</v>
           </cell>
           <cell r="I19">
             <v>0</v>
@@ -709,16 +709,16 @@
         </row>
         <row r="20">
           <cell r="B20">
+            <v>75</v>
+          </cell>
+          <cell r="C20">
             <v>15</v>
           </cell>
-          <cell r="C20">
-            <v>30</v>
-          </cell>
           <cell r="D20">
-            <v>22</v>
+            <v>7</v>
           </cell>
           <cell r="E20">
-            <v>30</v>
+            <v>1</v>
           </cell>
           <cell r="F20">
             <v>1</v>
@@ -727,7 +727,7 @@
             <v>1</v>
           </cell>
           <cell r="H20">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I20">
             <v>0</v>
@@ -755,78 +755,66 @@
         </row>
         <row r="25">
           <cell r="B25">
-            <v>50</v>
+            <v>13</v>
           </cell>
           <cell r="C25">
+            <v>35</v>
+          </cell>
+          <cell r="D25">
             <v>30</v>
           </cell>
-          <cell r="D25">
+          <cell r="E25">
             <v>10</v>
           </cell>
-          <cell r="E25">
-            <v>1</v>
-          </cell>
           <cell r="F25">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="G25">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="B30">
-            <v>2</v>
-          </cell>
-          <cell r="C30">
-            <v>3</v>
-          </cell>
-          <cell r="D30">
-            <v>4</v>
-          </cell>
-          <cell r="E30">
-            <v>5</v>
-          </cell>
-          <cell r="F30">
-            <v>10</v>
-          </cell>
           <cell r="G30">
             <v>-1</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>90</v>
+            <v>10</v>
           </cell>
           <cell r="C31">
-            <v>5</v>
+            <v>61</v>
           </cell>
           <cell r="D31">
-            <v>2</v>
+            <v>15</v>
           </cell>
           <cell r="E31">
-            <v>2</v>
+            <v>10</v>
           </cell>
           <cell r="F31">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="G31">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="3">
           <cell r="T3">
-            <v>2</v>
+            <v>10</v>
           </cell>
           <cell r="U3">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="V3">
             <v>4</v>
           </cell>
           <cell r="W3">
-            <v>1</v>
+            <v>8</v>
           </cell>
           <cell r="X3">
             <v>8</v>
@@ -834,16 +822,16 @@
         </row>
         <row r="4">
           <cell r="T4">
+            <v>10</v>
+          </cell>
+          <cell r="U4">
+            <v>4</v>
+          </cell>
+          <cell r="V4">
             <v>5</v>
           </cell>
-          <cell r="U4">
+          <cell r="W4">
             <v>7</v>
-          </cell>
-          <cell r="V4">
-            <v>2</v>
-          </cell>
-          <cell r="W4">
-            <v>2</v>
           </cell>
           <cell r="X4">
             <v>10</v>
@@ -851,13 +839,13 @@
         </row>
         <row r="5">
           <cell r="T5">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="U5">
+            <v>10</v>
+          </cell>
+          <cell r="V5">
             <v>9</v>
-          </cell>
-          <cell r="V5">
-            <v>2</v>
           </cell>
           <cell r="W5">
             <v>8</v>
@@ -868,53 +856,53 @@
         </row>
         <row r="6">
           <cell r="T6">
-            <v>13</v>
+            <v>1</v>
           </cell>
           <cell r="U6">
+            <v>3</v>
+          </cell>
+          <cell r="V6">
+            <v>1</v>
+          </cell>
+          <cell r="W6">
+            <v>2</v>
+          </cell>
+          <cell r="X6">
             <v>5</v>
-          </cell>
-          <cell r="V6">
-            <v>10</v>
-          </cell>
-          <cell r="W6">
-            <v>7</v>
-          </cell>
-          <cell r="X6">
-            <v>8</v>
           </cell>
         </row>
         <row r="7">
           <cell r="T7">
-            <v>10</v>
+            <v>1</v>
           </cell>
           <cell r="U7">
+            <v>3</v>
+          </cell>
+          <cell r="V7">
             <v>1</v>
-          </cell>
-          <cell r="V7">
-            <v>5</v>
           </cell>
           <cell r="W7">
             <v>2</v>
           </cell>
           <cell r="X7">
-            <v>1</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="8">
           <cell r="T8">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="U8">
-            <v>12</v>
+            <v>2</v>
           </cell>
           <cell r="V8">
+            <v>1</v>
+          </cell>
+          <cell r="W8">
             <v>5</v>
           </cell>
-          <cell r="W8">
-            <v>1</v>
-          </cell>
           <cell r="X8">
-            <v>3</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="9">
@@ -928,27 +916,27 @@
             <v>1</v>
           </cell>
           <cell r="W9">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="X9">
-            <v>8</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="10">
           <cell r="T10">
-            <v>8</v>
+            <v>12</v>
           </cell>
           <cell r="U10">
             <v>7</v>
           </cell>
           <cell r="V10">
-            <v>10</v>
+            <v>1</v>
           </cell>
           <cell r="W10">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="X10">
-            <v>8</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="11">
@@ -956,50 +944,50 @@
             <v>9</v>
           </cell>
           <cell r="U11">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="V11">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="W11">
             <v>8</v>
           </cell>
           <cell r="X11">
-            <v>12</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="12">
           <cell r="T12">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="U12">
             <v>10</v>
           </cell>
           <cell r="V12">
-            <v>12</v>
+            <v>8</v>
           </cell>
           <cell r="W12">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="X12">
-            <v>10</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="T13">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="U13">
+            <v>10</v>
+          </cell>
+          <cell r="V13">
+            <v>4</v>
+          </cell>
+          <cell r="W13">
             <v>7</v>
           </cell>
-          <cell r="V13">
-            <v>1</v>
-          </cell>
-          <cell r="W13">
-            <v>11</v>
-          </cell>
           <cell r="X13">
-            <v>8</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="14">
@@ -1007,30 +995,30 @@
             <v>8</v>
           </cell>
           <cell r="U14">
-            <v>9</v>
+            <v>7</v>
           </cell>
           <cell r="V14">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="W14">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="X14">
-            <v>9</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="15">
           <cell r="T15">
-            <v>2</v>
+            <v>13</v>
           </cell>
           <cell r="U15">
-            <v>1</v>
+            <v>13</v>
           </cell>
           <cell r="V15">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="W15">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="X15">
             <v>10</v>
@@ -1041,16 +1029,16 @@
             <v>8</v>
           </cell>
           <cell r="U16">
-            <v>12</v>
+            <v>7</v>
           </cell>
           <cell r="V16">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="W16">
-            <v>12</v>
+            <v>9</v>
           </cell>
           <cell r="X16">
-            <v>10</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="17">
@@ -1058,10 +1046,10 @@
             <v>10</v>
           </cell>
           <cell r="U17">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="V17">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="W17">
             <v>2</v>
@@ -1072,19 +1060,19 @@
         </row>
         <row r="18">
           <cell r="T18">
-            <v>12</v>
+            <v>3</v>
           </cell>
           <cell r="U18">
-            <v>5</v>
+            <v>13</v>
           </cell>
           <cell r="V18">
+            <v>11</v>
+          </cell>
+          <cell r="W18">
+            <v>9</v>
+          </cell>
+          <cell r="X18">
             <v>8</v>
-          </cell>
-          <cell r="W18">
-            <v>2</v>
-          </cell>
-          <cell r="X18">
-            <v>3</v>
           </cell>
         </row>
         <row r="19">
@@ -1092,13 +1080,13 @@
             <v>9</v>
           </cell>
           <cell r="U19">
-            <v>8</v>
+            <v>9</v>
           </cell>
           <cell r="V19">
-            <v>5</v>
+            <v>11</v>
           </cell>
           <cell r="W19">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="X19">
             <v>4</v>
@@ -1112,47 +1100,47 @@
             <v>9</v>
           </cell>
           <cell r="V20">
-            <v>5</v>
+            <v>11</v>
           </cell>
           <cell r="W20">
-            <v>7</v>
+            <v>3</v>
           </cell>
           <cell r="X20">
-            <v>9</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="21">
           <cell r="T21">
-            <v>10</v>
+            <v>13</v>
           </cell>
           <cell r="U21">
-            <v>7</v>
+            <v>2</v>
           </cell>
           <cell r="V21">
-            <v>10</v>
+            <v>11</v>
           </cell>
           <cell r="W21">
-            <v>10</v>
+            <v>3</v>
           </cell>
           <cell r="X21">
-            <v>3</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="22">
           <cell r="T22">
-            <v>13</v>
+            <v>9</v>
           </cell>
           <cell r="U22">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="V22">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="W22">
+            <v>7</v>
+          </cell>
+          <cell r="X22">
             <v>11</v>
-          </cell>
-          <cell r="X22">
-            <v>10</v>
           </cell>
         </row>
         <row r="23">
@@ -1163,30 +1151,30 @@
             <v>8</v>
           </cell>
           <cell r="V23">
+            <v>6</v>
+          </cell>
+          <cell r="W23">
+            <v>8</v>
+          </cell>
+          <cell r="X23">
             <v>11</v>
-          </cell>
-          <cell r="W23">
-            <v>1</v>
-          </cell>
-          <cell r="X23">
-            <v>9</v>
           </cell>
         </row>
         <row r="24">
           <cell r="T24">
-            <v>8</v>
+            <v>2</v>
           </cell>
           <cell r="U24">
-            <v>4</v>
+            <v>13</v>
           </cell>
           <cell r="V24">
+            <v>3</v>
+          </cell>
+          <cell r="W24">
+            <v>12</v>
+          </cell>
+          <cell r="X24">
             <v>11</v>
-          </cell>
-          <cell r="W24">
-            <v>1</v>
-          </cell>
-          <cell r="X24">
-            <v>9</v>
           </cell>
         </row>
         <row r="25">
@@ -1194,16 +1182,16 @@
             <v>5</v>
           </cell>
           <cell r="U25">
-            <v>12</v>
+            <v>6</v>
           </cell>
           <cell r="V25">
             <v>5</v>
           </cell>
           <cell r="W25">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="X25">
-            <v>9</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="26">
@@ -1211,95 +1199,95 @@
             <v>5</v>
           </cell>
           <cell r="U26">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="V26">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="W26">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="X26">
-            <v>7</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="27">
           <cell r="T27">
-            <v>1</v>
+            <v>10</v>
           </cell>
           <cell r="U27">
-            <v>9</v>
+            <v>13</v>
           </cell>
           <cell r="V27">
             <v>9</v>
           </cell>
           <cell r="W27">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="X27">
-            <v>7</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="28">
           <cell r="T28">
-            <v>9</v>
+            <v>6</v>
           </cell>
           <cell r="U28">
+            <v>7</v>
+          </cell>
+          <cell r="V28">
+            <v>11</v>
+          </cell>
+          <cell r="W28">
             <v>4</v>
           </cell>
-          <cell r="V28">
-            <v>10</v>
-          </cell>
-          <cell r="W28">
-            <v>8</v>
-          </cell>
           <cell r="X28">
-            <v>7</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="29">
           <cell r="T29">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="U29">
             <v>10</v>
           </cell>
           <cell r="V29">
+            <v>11</v>
+          </cell>
+          <cell r="W29">
+            <v>4</v>
+          </cell>
+          <cell r="X29">
             <v>1</v>
-          </cell>
-          <cell r="W29">
-            <v>2</v>
-          </cell>
-          <cell r="X29">
-            <v>7</v>
           </cell>
         </row>
         <row r="30">
           <cell r="T30">
-            <v>8</v>
+            <v>3</v>
           </cell>
           <cell r="U30">
-            <v>8</v>
+            <v>13</v>
           </cell>
           <cell r="V30">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="W30">
             <v>7</v>
           </cell>
           <cell r="X30">
-            <v>11</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="31">
           <cell r="T31">
-            <v>9</v>
+            <v>3</v>
           </cell>
           <cell r="U31">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="V31">
-            <v>5</v>
+            <v>11</v>
           </cell>
           <cell r="W31">
             <v>2</v>
@@ -1310,41 +1298,44 @@
         </row>
         <row r="32">
           <cell r="T32">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="U32">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="V32">
             <v>8</v>
           </cell>
           <cell r="W32">
+            <v>2</v>
+          </cell>
+          <cell r="X32">
             <v>5</v>
-          </cell>
-          <cell r="X32">
-            <v>8</v>
           </cell>
         </row>
         <row r="33">
           <cell r="T33">
+            <v>8</v>
+          </cell>
+          <cell r="U33">
+            <v>8</v>
+          </cell>
+          <cell r="V33">
+            <v>9</v>
+          </cell>
+          <cell r="W33">
             <v>7</v>
           </cell>
-          <cell r="U33">
-            <v>12</v>
-          </cell>
-          <cell r="V33">
-            <v>8</v>
-          </cell>
-          <cell r="W33">
+          <cell r="X33">
             <v>5</v>
-          </cell>
-          <cell r="X33">
-            <v>9</v>
           </cell>
         </row>
         <row r="34">
+          <cell r="T34">
+            <v>13</v>
+          </cell>
           <cell r="U34">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="V34">
             <v>8</v>
@@ -1357,6 +1348,9 @@
           </cell>
         </row>
         <row r="35">
+          <cell r="T35">
+            <v>10</v>
+          </cell>
           <cell r="U35">
             <v>1</v>
           </cell>
@@ -1364,27 +1358,33 @@
             <v>2</v>
           </cell>
           <cell r="W35">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="X35">
-            <v>5</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="36">
+          <cell r="T36">
+            <v>8</v>
+          </cell>
           <cell r="U36">
-            <v>10</v>
+            <v>4</v>
           </cell>
           <cell r="V36">
-            <v>12</v>
+            <v>8</v>
           </cell>
           <cell r="W36">
             <v>5</v>
           </cell>
           <cell r="X36">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="37">
+          <cell r="T37">
+            <v>7</v>
+          </cell>
           <cell r="U37">
             <v>4</v>
           </cell>
@@ -1395,15 +1395,18 @@
             <v>10</v>
           </cell>
           <cell r="X37">
-            <v>7</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="38">
+          <cell r="T38">
+            <v>13</v>
+          </cell>
           <cell r="U38">
             <v>4</v>
           </cell>
           <cell r="V38">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="W38">
             <v>5</v>
@@ -1413,6 +1416,9 @@
           </cell>
         </row>
         <row r="39">
+          <cell r="T39">
+            <v>9</v>
+          </cell>
           <cell r="U39">
             <v>3</v>
           </cell>
@@ -1420,13 +1426,16 @@
             <v>4</v>
           </cell>
           <cell r="W39">
-            <v>5</v>
+            <v>10</v>
           </cell>
           <cell r="X39">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="40">
+          <cell r="T40">
+            <v>6</v>
+          </cell>
           <cell r="U40">
             <v>5</v>
           </cell>
@@ -1437,12 +1446,15 @@
             <v>5</v>
           </cell>
           <cell r="X40">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="41">
+          <cell r="T41">
+            <v>8</v>
+          </cell>
           <cell r="U41">
-            <v>4</v>
+            <v>10</v>
           </cell>
           <cell r="V41">
             <v>5</v>
@@ -1451,43 +1463,52 @@
             <v>8</v>
           </cell>
           <cell r="X41">
-            <v>11</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="42">
+          <cell r="T42">
+            <v>13</v>
+          </cell>
           <cell r="U42">
-            <v>1</v>
+            <v>13</v>
           </cell>
           <cell r="V42">
-            <v>9</v>
+            <v>5</v>
           </cell>
           <cell r="W42">
             <v>4</v>
           </cell>
           <cell r="X42">
-            <v>10</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="43">
+          <cell r="T43">
+            <v>6</v>
+          </cell>
           <cell r="U43">
-            <v>9</v>
+            <v>7</v>
           </cell>
           <cell r="V43">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="W43">
             <v>6</v>
           </cell>
           <cell r="X43">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="44">
+          <cell r="T44">
+            <v>4</v>
+          </cell>
           <cell r="U44">
-            <v>7</v>
+            <v>4</v>
           </cell>
           <cell r="V44">
-            <v>6</v>
+            <v>9</v>
           </cell>
           <cell r="W44">
             <v>7</v>
@@ -1497,234 +1518,1506 @@
           </cell>
         </row>
         <row r="45">
+          <cell r="T45">
+            <v>4</v>
+          </cell>
           <cell r="U45">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="V45">
-            <v>1</v>
+            <v>9</v>
           </cell>
           <cell r="W45">
-            <v>7</v>
+            <v>3</v>
           </cell>
           <cell r="X45">
             <v>9</v>
           </cell>
         </row>
         <row r="46">
+          <cell r="T46">
+            <v>10</v>
+          </cell>
           <cell r="U46">
             <v>2</v>
           </cell>
           <cell r="V46">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="W46">
-            <v>12</v>
+            <v>8</v>
           </cell>
           <cell r="X46">
             <v>10</v>
           </cell>
         </row>
         <row r="47">
+          <cell r="T47">
+            <v>9</v>
+          </cell>
           <cell r="U47">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="V47">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="W47">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="X47">
-            <v>11</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="48">
+          <cell r="T48">
+            <v>12</v>
+          </cell>
           <cell r="U48">
-            <v>9</v>
+            <v>12</v>
           </cell>
           <cell r="V48">
-            <v>7</v>
+            <v>12</v>
           </cell>
           <cell r="W48">
-            <v>8</v>
+            <v>12</v>
           </cell>
           <cell r="X48">
-            <v>9</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="49">
+          <cell r="T49">
+            <v>9</v>
+          </cell>
           <cell r="U49">
-            <v>3</v>
+            <v>9</v>
           </cell>
           <cell r="V49">
             <v>7</v>
           </cell>
           <cell r="W49">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="X49">
-            <v>1</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="50">
+          <cell r="T50">
+            <v>10</v>
+          </cell>
           <cell r="U50">
             <v>7</v>
           </cell>
           <cell r="V50">
+            <v>8</v>
+          </cell>
+          <cell r="W50">
             <v>10</v>
           </cell>
-          <cell r="W50">
-            <v>7</v>
-          </cell>
           <cell r="X50">
-            <v>7</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="51">
+          <cell r="T51">
+            <v>6</v>
+          </cell>
           <cell r="U51">
-            <v>2</v>
+            <v>9</v>
           </cell>
           <cell r="V51">
             <v>10</v>
           </cell>
           <cell r="W51">
-            <v>3</v>
+            <v>10</v>
           </cell>
           <cell r="X51">
-            <v>7</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="52">
+          <cell r="T52">
+            <v>13</v>
+          </cell>
           <cell r="U52">
+            <v>5</v>
+          </cell>
+          <cell r="V52">
+            <v>5</v>
+          </cell>
+          <cell r="W52">
             <v>8</v>
           </cell>
-          <cell r="V52">
-            <v>7</v>
-          </cell>
-          <cell r="W52">
-            <v>6</v>
-          </cell>
           <cell r="X52">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="53">
+          <cell r="T53">
+            <v>8</v>
+          </cell>
           <cell r="U53">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="V53">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="W53">
-            <v>2</v>
+            <v>11</v>
           </cell>
           <cell r="X53">
-            <v>9</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="54">
+          <cell r="T54">
+            <v>10</v>
+          </cell>
           <cell r="U54">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="V54">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="W54">
             <v>11</v>
           </cell>
           <cell r="X54">
-            <v>6</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="55">
+          <cell r="T55">
+            <v>8</v>
+          </cell>
           <cell r="U55">
-            <v>9</v>
+            <v>3</v>
           </cell>
           <cell r="V55">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="W55">
-            <v>9</v>
+            <v>11</v>
           </cell>
           <cell r="X55">
             <v>4</v>
           </cell>
         </row>
         <row r="56">
+          <cell r="T56">
+            <v>13</v>
+          </cell>
           <cell r="U56">
-            <v>4</v>
+            <v>7</v>
           </cell>
           <cell r="V56">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="W56">
-            <v>9</v>
+            <v>11</v>
           </cell>
           <cell r="X56">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="57">
+          <cell r="T57">
+            <v>8</v>
+          </cell>
           <cell r="U57">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="V57">
-            <v>12</v>
+            <v>3</v>
           </cell>
           <cell r="W57">
             <v>6</v>
           </cell>
           <cell r="X57">
-            <v>11</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="58">
+          <cell r="T58">
+            <v>9</v>
+          </cell>
           <cell r="U58">
             <v>10</v>
           </cell>
           <cell r="V58">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="W58">
-            <v>8</v>
+            <v>6</v>
+          </cell>
+          <cell r="X58">
+            <v>2</v>
           </cell>
         </row>
         <row r="59">
+          <cell r="T59">
+            <v>1</v>
+          </cell>
           <cell r="U59">
+            <v>7</v>
+          </cell>
+          <cell r="V59">
+            <v>7</v>
+          </cell>
+          <cell r="W59">
+            <v>7</v>
+          </cell>
+          <cell r="X59">
             <v>2</v>
-          </cell>
-          <cell r="V59">
-            <v>1</v>
           </cell>
         </row>
         <row r="60">
+          <cell r="T60">
+            <v>9</v>
+          </cell>
           <cell r="U60">
-            <v>6</v>
+            <v>9</v>
           </cell>
           <cell r="V60">
-            <v>4</v>
+            <v>11</v>
+          </cell>
+          <cell r="W60">
+            <v>9</v>
+          </cell>
+          <cell r="X60">
+            <v>10</v>
           </cell>
         </row>
         <row r="61">
+          <cell r="T61">
+            <v>8</v>
+          </cell>
           <cell r="U61">
-            <v>13</v>
+            <v>9</v>
           </cell>
           <cell r="V61">
+            <v>11</v>
+          </cell>
+          <cell r="W61">
+            <v>9</v>
+          </cell>
+          <cell r="X61">
             <v>9</v>
           </cell>
         </row>
         <row r="62">
+          <cell r="T62">
+            <v>8</v>
+          </cell>
           <cell r="U62">
+            <v>7</v>
+          </cell>
+          <cell r="V62">
+            <v>11</v>
+          </cell>
+          <cell r="W62">
+            <v>12</v>
+          </cell>
+          <cell r="X62">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="T63">
+            <v>13</v>
+          </cell>
+          <cell r="U63">
+            <v>13</v>
+          </cell>
+          <cell r="V63">
+            <v>7</v>
+          </cell>
+          <cell r="W63">
+            <v>8</v>
+          </cell>
+          <cell r="X63">
             <v>9</v>
           </cell>
-          <cell r="V62">
+        </row>
+        <row r="64">
+          <cell r="T64">
+            <v>9</v>
+          </cell>
+          <cell r="U64">
+            <v>10</v>
+          </cell>
+          <cell r="V64">
+            <v>7</v>
+          </cell>
+          <cell r="W64">
+            <v>2</v>
+          </cell>
+          <cell r="X64">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="T65">
+            <v>3</v>
+          </cell>
+          <cell r="U65">
+            <v>3</v>
+          </cell>
+          <cell r="V65">
+            <v>3</v>
+          </cell>
+          <cell r="W65">
+            <v>8</v>
+          </cell>
+          <cell r="X65">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="T66">
+            <v>3</v>
+          </cell>
+          <cell r="U66">
+            <v>3</v>
+          </cell>
+          <cell r="V66">
+            <v>4</v>
+          </cell>
+          <cell r="W66">
+            <v>7</v>
+          </cell>
+          <cell r="X66">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="T67">
+            <v>2</v>
+          </cell>
+          <cell r="U67">
+            <v>2</v>
+          </cell>
+          <cell r="V67">
+            <v>4</v>
+          </cell>
+          <cell r="W67">
+            <v>11</v>
+          </cell>
+          <cell r="X67">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="T68">
+            <v>2</v>
+          </cell>
+          <cell r="U68">
+            <v>2</v>
+          </cell>
+          <cell r="V68">
+            <v>7</v>
+          </cell>
+          <cell r="W68">
+            <v>11</v>
+          </cell>
+          <cell r="X68">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="T69">
+            <v>9</v>
+          </cell>
+          <cell r="U69">
+            <v>10</v>
+          </cell>
+          <cell r="V69">
+            <v>7</v>
+          </cell>
+          <cell r="W69">
+            <v>11</v>
+          </cell>
+          <cell r="X69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="T70">
+            <v>13</v>
+          </cell>
+          <cell r="U70">
+            <v>13</v>
+          </cell>
+          <cell r="V70">
+            <v>8</v>
+          </cell>
+          <cell r="W70">
+            <v>11</v>
+          </cell>
+          <cell r="X70">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="T71">
+            <v>8</v>
+          </cell>
+          <cell r="U71">
+            <v>7</v>
+          </cell>
+          <cell r="V71">
+            <v>3</v>
+          </cell>
+          <cell r="W71">
+            <v>11</v>
+          </cell>
+          <cell r="X71">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="T72">
+            <v>10</v>
+          </cell>
+          <cell r="U72">
+            <v>10</v>
+          </cell>
+          <cell r="V72">
+            <v>5</v>
+          </cell>
+          <cell r="W72">
+            <v>8</v>
+          </cell>
+          <cell r="X72">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="T73">
             <v>6</v>
+          </cell>
+          <cell r="U73">
+            <v>8</v>
+          </cell>
+          <cell r="V73">
+            <v>2</v>
+          </cell>
+          <cell r="W73">
+            <v>6</v>
+          </cell>
+          <cell r="X73">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="T74">
+            <v>13</v>
+          </cell>
+          <cell r="U74">
+            <v>13</v>
+          </cell>
+          <cell r="V74">
+            <v>7</v>
+          </cell>
+          <cell r="W74">
+            <v>6</v>
+          </cell>
+          <cell r="X74">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="T75">
+            <v>8</v>
+          </cell>
+          <cell r="U75">
+            <v>6</v>
+          </cell>
+          <cell r="V75">
+            <v>9</v>
+          </cell>
+          <cell r="W75">
+            <v>11</v>
+          </cell>
+          <cell r="X75">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="T76">
+            <v>10</v>
+          </cell>
+          <cell r="U76">
+            <v>4</v>
+          </cell>
+          <cell r="V76">
+            <v>3</v>
+          </cell>
+          <cell r="W76">
+            <v>9</v>
+          </cell>
+          <cell r="X76">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="T77">
+            <v>1</v>
+          </cell>
+          <cell r="U77">
+            <v>4</v>
+          </cell>
+          <cell r="V77">
+            <v>8</v>
+          </cell>
+          <cell r="W77">
+            <v>9</v>
+          </cell>
+          <cell r="X77">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="T78">
+            <v>1</v>
+          </cell>
+          <cell r="U78">
+            <v>4</v>
+          </cell>
+          <cell r="V78">
+            <v>9</v>
+          </cell>
+          <cell r="W78">
+            <v>2</v>
+          </cell>
+          <cell r="X78">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="T79">
+            <v>9</v>
+          </cell>
+          <cell r="U79">
+            <v>10</v>
+          </cell>
+          <cell r="V79">
+            <v>11</v>
+          </cell>
+          <cell r="W79">
+            <v>5</v>
+          </cell>
+          <cell r="X79">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="T80">
+            <v>10</v>
+          </cell>
+          <cell r="U80">
+            <v>3</v>
+          </cell>
+          <cell r="V80">
+            <v>11</v>
+          </cell>
+          <cell r="W80">
+            <v>6</v>
+          </cell>
+          <cell r="X80">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="T81">
+            <v>7</v>
+          </cell>
+          <cell r="U81">
+            <v>3</v>
+          </cell>
+          <cell r="V81">
+            <v>10</v>
+          </cell>
+          <cell r="W81">
+            <v>6</v>
+          </cell>
+          <cell r="X81">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="T82">
+            <v>5</v>
+          </cell>
+          <cell r="U82">
+            <v>7</v>
+          </cell>
+          <cell r="V82">
+            <v>10</v>
+          </cell>
+          <cell r="W82">
+            <v>6</v>
+          </cell>
+          <cell r="X82">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="T83">
+            <v>5</v>
+          </cell>
+          <cell r="U83">
+            <v>2</v>
+          </cell>
+          <cell r="V83">
+            <v>6</v>
+          </cell>
+          <cell r="W83">
+            <v>8</v>
+          </cell>
+          <cell r="X83">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="T84">
+            <v>5</v>
+          </cell>
+          <cell r="U84">
+            <v>2</v>
+          </cell>
+          <cell r="V84">
+            <v>1</v>
+          </cell>
+          <cell r="W84">
+            <v>8</v>
+          </cell>
+          <cell r="X84">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="T85">
+            <v>7</v>
+          </cell>
+          <cell r="U85">
+            <v>2</v>
+          </cell>
+          <cell r="V85">
+            <v>1</v>
+          </cell>
+          <cell r="W85">
+            <v>1</v>
+          </cell>
+          <cell r="X85">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="T86">
+            <v>10</v>
+          </cell>
+          <cell r="U86">
+            <v>7</v>
+          </cell>
+          <cell r="V86">
+            <v>1</v>
+          </cell>
+          <cell r="W86">
+            <v>1</v>
+          </cell>
+          <cell r="X86">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="T87">
+            <v>8</v>
+          </cell>
+          <cell r="U87">
+            <v>8</v>
+          </cell>
+          <cell r="V87">
+            <v>8</v>
+          </cell>
+          <cell r="W87">
+            <v>1</v>
+          </cell>
+          <cell r="X87">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="T88">
+            <v>4</v>
+          </cell>
+          <cell r="U88">
+            <v>10</v>
+          </cell>
+          <cell r="V88">
+            <v>10</v>
+          </cell>
+          <cell r="W88">
+            <v>8</v>
+          </cell>
+          <cell r="X88">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="T89">
+            <v>4</v>
+          </cell>
+          <cell r="U89">
+            <v>5</v>
+          </cell>
+          <cell r="V89">
+            <v>2</v>
+          </cell>
+          <cell r="W89">
+            <v>4</v>
+          </cell>
+          <cell r="X89">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="T90">
+            <v>4</v>
+          </cell>
+          <cell r="U90">
+            <v>5</v>
+          </cell>
+          <cell r="V90">
+            <v>2</v>
+          </cell>
+          <cell r="W90">
+            <v>7</v>
+          </cell>
+          <cell r="X90">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="T91">
+            <v>8</v>
+          </cell>
+          <cell r="U91">
+            <v>5</v>
+          </cell>
+          <cell r="V91">
+            <v>2</v>
+          </cell>
+          <cell r="W91">
+            <v>10</v>
+          </cell>
+          <cell r="X91">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="T92">
+            <v>10</v>
+          </cell>
+          <cell r="U92">
+            <v>10</v>
+          </cell>
+          <cell r="V92">
+            <v>9</v>
+          </cell>
+          <cell r="W92">
+            <v>2</v>
+          </cell>
+          <cell r="X92">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="T93">
+            <v>13</v>
+          </cell>
+          <cell r="U93">
+            <v>8</v>
+          </cell>
+          <cell r="V93">
+            <v>9</v>
+          </cell>
+          <cell r="W93">
+            <v>2</v>
+          </cell>
+          <cell r="X93">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="T94">
+            <v>6</v>
+          </cell>
+          <cell r="U94">
+            <v>1</v>
+          </cell>
+          <cell r="V94">
+            <v>8</v>
+          </cell>
+          <cell r="W94">
+            <v>9</v>
+          </cell>
+          <cell r="X94">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="T95">
+            <v>9</v>
+          </cell>
+          <cell r="U95">
+            <v>1</v>
+          </cell>
+          <cell r="V95">
+            <v>11</v>
+          </cell>
+          <cell r="W95">
+            <v>10</v>
+          </cell>
+          <cell r="X95">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="T96">
+            <v>10</v>
+          </cell>
+          <cell r="U96">
+            <v>8</v>
+          </cell>
+          <cell r="V96">
+            <v>11</v>
+          </cell>
+          <cell r="W96">
+            <v>10</v>
+          </cell>
+          <cell r="X96">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="T97">
+            <v>2</v>
+          </cell>
+          <cell r="U97">
+            <v>5</v>
+          </cell>
+          <cell r="V97">
+            <v>11</v>
+          </cell>
+          <cell r="W97">
+            <v>9</v>
+          </cell>
+          <cell r="X97">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="T98">
+            <v>2</v>
+          </cell>
+          <cell r="U98">
+            <v>5</v>
+          </cell>
+          <cell r="V98">
+            <v>11</v>
+          </cell>
+          <cell r="W98">
+            <v>5</v>
+          </cell>
+          <cell r="X98">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="T99">
+            <v>2</v>
+          </cell>
+          <cell r="U99">
+            <v>5</v>
+          </cell>
+          <cell r="V99">
+            <v>11</v>
+          </cell>
+          <cell r="W99">
+            <v>5</v>
+          </cell>
+          <cell r="X99">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="T100">
+            <v>10</v>
+          </cell>
+          <cell r="U100">
+            <v>6</v>
+          </cell>
+          <cell r="V100">
+            <v>7</v>
+          </cell>
+          <cell r="W100">
+            <v>5</v>
+          </cell>
+          <cell r="X100">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="T101">
+            <v>8</v>
+          </cell>
+          <cell r="U101">
+            <v>6</v>
+          </cell>
+          <cell r="V101">
+            <v>8</v>
+          </cell>
+          <cell r="W101">
+            <v>8</v>
+          </cell>
+          <cell r="X101">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="T102">
+            <v>13</v>
+          </cell>
+          <cell r="U102">
+            <v>13</v>
+          </cell>
+          <cell r="V102">
+            <v>2</v>
+          </cell>
+          <cell r="W102">
+            <v>4</v>
+          </cell>
+          <cell r="X102">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="T103">
+            <v>6</v>
+          </cell>
+          <cell r="U103">
+            <v>6</v>
+          </cell>
+          <cell r="V103">
+            <v>6</v>
+          </cell>
+          <cell r="W103">
+            <v>6</v>
+          </cell>
+          <cell r="X103">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="T104">
+            <v>9</v>
+          </cell>
+          <cell r="U104">
+            <v>3</v>
+          </cell>
+          <cell r="V104">
+            <v>6</v>
+          </cell>
+          <cell r="W104">
+            <v>7</v>
+          </cell>
+          <cell r="X104">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="U105">
+            <v>3</v>
+          </cell>
+          <cell r="V105">
+            <v>12</v>
+          </cell>
+          <cell r="W105">
+            <v>7</v>
+          </cell>
+          <cell r="X105">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="U106">
+            <v>1</v>
+          </cell>
+          <cell r="V106">
+            <v>7</v>
+          </cell>
+          <cell r="W106">
+            <v>1</v>
+          </cell>
+          <cell r="X106">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="U107">
+            <v>1</v>
+          </cell>
+          <cell r="V107">
+            <v>7</v>
+          </cell>
+          <cell r="W107">
+            <v>9</v>
+          </cell>
+          <cell r="X107">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="U108">
+            <v>6</v>
+          </cell>
+          <cell r="V108">
+            <v>6</v>
+          </cell>
+          <cell r="W108">
+            <v>12</v>
+          </cell>
+          <cell r="X108">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="U109">
+            <v>10</v>
+          </cell>
+          <cell r="V109">
+            <v>11</v>
+          </cell>
+          <cell r="W109">
+            <v>7</v>
+          </cell>
+          <cell r="X109">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="V110">
+            <v>11</v>
+          </cell>
+          <cell r="W110">
+            <v>6</v>
+          </cell>
+          <cell r="X110">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="V111">
+            <v>11</v>
+          </cell>
+          <cell r="W111">
+            <v>10</v>
+          </cell>
+          <cell r="X111">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="V112">
+            <v>11</v>
+          </cell>
+          <cell r="W112">
+            <v>11</v>
+          </cell>
+          <cell r="X112">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="V113">
+            <v>11</v>
+          </cell>
+          <cell r="W113">
+            <v>11</v>
+          </cell>
+          <cell r="X113">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="V114">
+            <v>7</v>
+          </cell>
+          <cell r="W114">
+            <v>11</v>
+          </cell>
+          <cell r="X114">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="V115">
+            <v>5</v>
+          </cell>
+          <cell r="W115">
+            <v>11</v>
+          </cell>
+          <cell r="X115">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="V116">
+            <v>3</v>
+          </cell>
+          <cell r="W116">
+            <v>11</v>
+          </cell>
+          <cell r="X116">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="V117">
+            <v>3</v>
+          </cell>
+          <cell r="W117">
+            <v>6</v>
+          </cell>
+          <cell r="X117">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="V118">
+            <v>6</v>
+          </cell>
+          <cell r="W118">
+            <v>7</v>
+          </cell>
+          <cell r="X118">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="V119">
+            <v>6</v>
+          </cell>
+          <cell r="W119">
+            <v>2</v>
+          </cell>
+          <cell r="X119">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="V120">
+            <v>5</v>
+          </cell>
+          <cell r="W120">
+            <v>2</v>
+          </cell>
+          <cell r="X120">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="V121">
+            <v>10</v>
+          </cell>
+          <cell r="W121">
+            <v>7</v>
+          </cell>
+          <cell r="X121">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="V122">
+            <v>12</v>
+          </cell>
+          <cell r="W122">
+            <v>12</v>
+          </cell>
+          <cell r="X122">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="V123">
+            <v>8</v>
+          </cell>
+          <cell r="W123">
+            <v>7</v>
+          </cell>
+          <cell r="X123">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="V124">
+            <v>5</v>
+          </cell>
+          <cell r="W124">
+            <v>3</v>
+          </cell>
+          <cell r="X124">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="V125">
+            <v>6</v>
+          </cell>
+          <cell r="W125">
+            <v>3</v>
+          </cell>
+          <cell r="X125">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="V126">
+            <v>3</v>
+          </cell>
+          <cell r="W126">
+            <v>9</v>
+          </cell>
+          <cell r="X126">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="V127">
+            <v>8</v>
+          </cell>
+          <cell r="W127">
+            <v>2</v>
+          </cell>
+          <cell r="X127">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="V128">
+            <v>8</v>
+          </cell>
+          <cell r="W128">
+            <v>2</v>
+          </cell>
+          <cell r="X128">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="V129">
+            <v>6</v>
+          </cell>
+          <cell r="W129">
+            <v>2</v>
+          </cell>
+          <cell r="X129">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="V130">
+            <v>11</v>
+          </cell>
+          <cell r="W130">
+            <v>7</v>
+          </cell>
+          <cell r="X130">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="V131">
+            <v>11</v>
+          </cell>
+          <cell r="W131">
+            <v>7</v>
+          </cell>
+          <cell r="X131">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="V132">
+            <v>11</v>
+          </cell>
+          <cell r="W132">
+            <v>10</v>
+          </cell>
+          <cell r="X132">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="V133">
+            <v>11</v>
+          </cell>
+          <cell r="W133">
+            <v>11</v>
+          </cell>
+          <cell r="X133">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="V134">
+            <v>6</v>
+          </cell>
+          <cell r="W134">
+            <v>11</v>
+          </cell>
+          <cell r="X134">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="V135">
+            <v>6</v>
+          </cell>
+          <cell r="W135">
+            <v>11</v>
+          </cell>
+          <cell r="X135">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="V136">
+            <v>10</v>
+          </cell>
+          <cell r="W136">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="V137">
+            <v>11</v>
+          </cell>
+          <cell r="W137">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="V138">
+            <v>11</v>
+          </cell>
+          <cell r="W138">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="V139">
+            <v>7</v>
+          </cell>
+          <cell r="W139">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="V140">
+            <v>10</v>
+          </cell>
+          <cell r="W140">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="V141">
+            <v>5</v>
+          </cell>
+          <cell r="W141">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="V142">
+            <v>5</v>
+          </cell>
+          <cell r="W142">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="V143">
+            <v>8</v>
+          </cell>
+          <cell r="W143">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="V144">
+            <v>4</v>
+          </cell>
+          <cell r="W144">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="V145">
+            <v>4</v>
+          </cell>
+          <cell r="W145">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="V146">
+            <v>4</v>
+          </cell>
+          <cell r="W146">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="V147">
+            <v>4</v>
+          </cell>
+          <cell r="W147">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="V148">
+            <v>7</v>
+          </cell>
+          <cell r="W148">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="V149">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="V150">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="V151">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="V152">
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1751,6 +3044,9 @@
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2124,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C679CF-C273-9E4F-9759-41197508142A}">
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2133,11 +3429,11 @@
     <row r="1" spans="1:5">
       <c r="A1" s="6">
         <f>IF('[1]243way_Regular Symbol'!T3="","",'[1]243way_Regular Symbol'!T3)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6">
         <f>IF('[1]243way_Regular Symbol'!U3="","",'[1]243way_Regular Symbol'!U3)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6">
         <f>IF('[1]243way_Regular Symbol'!V3="","",'[1]243way_Regular Symbol'!V3)</f>
@@ -2145,7 +3441,7 @@
       </c>
       <c r="D1" s="6">
         <f>IF('[1]243way_Regular Symbol'!W3="","",'[1]243way_Regular Symbol'!W3)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E1" s="6">
         <f>IF('[1]243way_Regular Symbol'!X3="","",'[1]243way_Regular Symbol'!X3)</f>
@@ -2155,19 +3451,19 @@
     <row r="2" spans="1:5">
       <c r="A2" s="6">
         <f>IF('[1]243way_Regular Symbol'!T4="","",'[1]243way_Regular Symbol'!T4)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <f>IF('[1]243way_Regular Symbol'!U4="","",'[1]243way_Regular Symbol'!U4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6">
         <f>IF('[1]243way_Regular Symbol'!V4="","",'[1]243way_Regular Symbol'!V4)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6">
         <f>IF('[1]243way_Regular Symbol'!W4="","",'[1]243way_Regular Symbol'!W4)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6">
         <f>IF('[1]243way_Regular Symbol'!X4="","",'[1]243way_Regular Symbol'!X4)</f>
@@ -2177,15 +3473,15 @@
     <row r="3" spans="1:5">
       <c r="A3" s="6">
         <f>IF('[1]243way_Regular Symbol'!T5="","",'[1]243way_Regular Symbol'!T5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6">
         <f>IF('[1]243way_Regular Symbol'!U5="","",'[1]243way_Regular Symbol'!U5)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <f>IF('[1]243way_Regular Symbol'!V5="","",'[1]243way_Regular Symbol'!V5)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6">
         <f>IF('[1]243way_Regular Symbol'!W5="","",'[1]243way_Regular Symbol'!W5)</f>
@@ -2199,37 +3495,37 @@
     <row r="4" spans="1:5">
       <c r="A4" s="6">
         <f>IF('[1]243way_Regular Symbol'!T6="","",'[1]243way_Regular Symbol'!T6)</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
         <f>IF('[1]243way_Regular Symbol'!U6="","",'[1]243way_Regular Symbol'!U6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <f>IF('[1]243way_Regular Symbol'!V6="","",'[1]243way_Regular Symbol'!V6)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <f>IF('[1]243way_Regular Symbol'!W6="","",'[1]243way_Regular Symbol'!W6)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6">
         <f>IF('[1]243way_Regular Symbol'!X6="","",'[1]243way_Regular Symbol'!X6)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6">
         <f>IF('[1]243way_Regular Symbol'!T7="","",'[1]243way_Regular Symbol'!T7)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6">
         <f>IF('[1]243way_Regular Symbol'!U7="","",'[1]243way_Regular Symbol'!U7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
         <f>IF('[1]243way_Regular Symbol'!V7="","",'[1]243way_Regular Symbol'!V7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
         <f>IF('[1]243way_Regular Symbol'!W7="","",'[1]243way_Regular Symbol'!W7)</f>
@@ -2237,29 +3533,29 @@
       </c>
       <c r="E5" s="6">
         <f>IF('[1]243way_Regular Symbol'!X7="","",'[1]243way_Regular Symbol'!X7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6">
         <f>IF('[1]243way_Regular Symbol'!T8="","",'[1]243way_Regular Symbol'!T8)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6">
         <f>IF('[1]243way_Regular Symbol'!U8="","",'[1]243way_Regular Symbol'!U8)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6">
         <f>IF('[1]243way_Regular Symbol'!V8="","",'[1]243way_Regular Symbol'!V8)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6">
         <f>IF('[1]243way_Regular Symbol'!W8="","",'[1]243way_Regular Symbol'!W8)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <f>IF('[1]243way_Regular Symbol'!X8="","",'[1]243way_Regular Symbol'!X8)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2277,17 +3573,17 @@
       </c>
       <c r="D7" s="6">
         <f>IF('[1]243way_Regular Symbol'!W9="","",'[1]243way_Regular Symbol'!W9)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
         <f>IF('[1]243way_Regular Symbol'!X9="","",'[1]243way_Regular Symbol'!X9)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6">
         <f>IF('[1]243way_Regular Symbol'!T10="","",'[1]243way_Regular Symbol'!T10)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f>IF('[1]243way_Regular Symbol'!U10="","",'[1]243way_Regular Symbol'!U10)</f>
@@ -2295,15 +3591,15 @@
       </c>
       <c r="C8" s="6">
         <f>IF('[1]243way_Regular Symbol'!V10="","",'[1]243way_Regular Symbol'!V10)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6">
         <f>IF('[1]243way_Regular Symbol'!W10="","",'[1]243way_Regular Symbol'!W10)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
         <f>IF('[1]243way_Regular Symbol'!X10="","",'[1]243way_Regular Symbol'!X10)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2313,11 +3609,11 @@
       </c>
       <c r="B9" s="6">
         <f>IF('[1]243way_Regular Symbol'!U11="","",'[1]243way_Regular Symbol'!U11)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6">
         <f>IF('[1]243way_Regular Symbol'!V11="","",'[1]243way_Regular Symbol'!V11)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6">
         <f>IF('[1]243way_Regular Symbol'!W11="","",'[1]243way_Regular Symbol'!W11)</f>
@@ -2325,13 +3621,13 @@
       </c>
       <c r="E9" s="6">
         <f>IF('[1]243way_Regular Symbol'!X11="","",'[1]243way_Regular Symbol'!X11)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6">
         <f>IF('[1]243way_Regular Symbol'!T12="","",'[1]243way_Regular Symbol'!T12)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <f>IF('[1]243way_Regular Symbol'!U12="","",'[1]243way_Regular Symbol'!U12)</f>
@@ -2339,37 +3635,37 @@
       </c>
       <c r="C10" s="6">
         <f>IF('[1]243way_Regular Symbol'!V12="","",'[1]243way_Regular Symbol'!V12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6">
         <f>IF('[1]243way_Regular Symbol'!W12="","",'[1]243way_Regular Symbol'!W12)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="6">
         <f>IF('[1]243way_Regular Symbol'!X12="","",'[1]243way_Regular Symbol'!X12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6">
         <f>IF('[1]243way_Regular Symbol'!T13="","",'[1]243way_Regular Symbol'!T13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6">
         <f>IF('[1]243way_Regular Symbol'!U13="","",'[1]243way_Regular Symbol'!U13)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
         <f>IF('[1]243way_Regular Symbol'!V13="","",'[1]243way_Regular Symbol'!V13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="6">
         <f>IF('[1]243way_Regular Symbol'!W13="","",'[1]243way_Regular Symbol'!W13)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6">
         <f>IF('[1]243way_Regular Symbol'!X13="","",'[1]243way_Regular Symbol'!X13)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2379,37 +3675,37 @@
       </c>
       <c r="B12" s="6">
         <f>IF('[1]243way_Regular Symbol'!U14="","",'[1]243way_Regular Symbol'!U14)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6">
         <f>IF('[1]243way_Regular Symbol'!V14="","",'[1]243way_Regular Symbol'!V14)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="6">
         <f>IF('[1]243way_Regular Symbol'!W14="","",'[1]243way_Regular Symbol'!W14)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="6">
         <f>IF('[1]243way_Regular Symbol'!X14="","",'[1]243way_Regular Symbol'!X14)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6">
         <f>IF('[1]243way_Regular Symbol'!T15="","",'[1]243way_Regular Symbol'!T15)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6">
         <f>IF('[1]243way_Regular Symbol'!U15="","",'[1]243way_Regular Symbol'!U15)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6">
         <f>IF('[1]243way_Regular Symbol'!V15="","",'[1]243way_Regular Symbol'!V15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6">
         <f>IF('[1]243way_Regular Symbol'!W15="","",'[1]243way_Regular Symbol'!W15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6">
         <f>IF('[1]243way_Regular Symbol'!X15="","",'[1]243way_Regular Symbol'!X15)</f>
@@ -2423,19 +3719,19 @@
       </c>
       <c r="B14" s="6">
         <f>IF('[1]243way_Regular Symbol'!U16="","",'[1]243way_Regular Symbol'!U16)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6">
         <f>IF('[1]243way_Regular Symbol'!V16="","",'[1]243way_Regular Symbol'!V16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="6">
         <f>IF('[1]243way_Regular Symbol'!W16="","",'[1]243way_Regular Symbol'!W16)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="6">
         <f>IF('[1]243way_Regular Symbol'!X16="","",'[1]243way_Regular Symbol'!X16)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2445,11 +3741,11 @@
       </c>
       <c r="B15" s="6">
         <f>IF('[1]243way_Regular Symbol'!U17="","",'[1]243way_Regular Symbol'!U17)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6">
         <f>IF('[1]243way_Regular Symbol'!V17="","",'[1]243way_Regular Symbol'!V17)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6">
         <f>IF('[1]243way_Regular Symbol'!W17="","",'[1]243way_Regular Symbol'!W17)</f>
@@ -2463,23 +3759,23 @@
     <row r="16" spans="1:5">
       <c r="A16" s="6">
         <f>IF('[1]243way_Regular Symbol'!T18="","",'[1]243way_Regular Symbol'!T18)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B16" s="6">
         <f>IF('[1]243way_Regular Symbol'!U18="","",'[1]243way_Regular Symbol'!U18)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6">
         <f>IF('[1]243way_Regular Symbol'!V18="","",'[1]243way_Regular Symbol'!V18)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6">
         <f>IF('[1]243way_Regular Symbol'!W18="","",'[1]243way_Regular Symbol'!W18)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6">
         <f>IF('[1]243way_Regular Symbol'!X18="","",'[1]243way_Regular Symbol'!X18)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2489,15 +3785,15 @@
       </c>
       <c r="B17" s="6">
         <f>IF('[1]243way_Regular Symbol'!U19="","",'[1]243way_Regular Symbol'!U19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6">
         <f>IF('[1]243way_Regular Symbol'!V19="","",'[1]243way_Regular Symbol'!V19)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6">
         <f>IF('[1]243way_Regular Symbol'!W19="","",'[1]243way_Regular Symbol'!W19)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="6">
         <f>IF('[1]243way_Regular Symbol'!X19="","",'[1]243way_Regular Symbol'!X19)</f>
@@ -2515,59 +3811,59 @@
       </c>
       <c r="C18" s="6">
         <f>IF('[1]243way_Regular Symbol'!V20="","",'[1]243way_Regular Symbol'!V20)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6">
         <f>IF('[1]243way_Regular Symbol'!W20="","",'[1]243way_Regular Symbol'!W20)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" s="6">
         <f>IF('[1]243way_Regular Symbol'!X20="","",'[1]243way_Regular Symbol'!X20)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6">
         <f>IF('[1]243way_Regular Symbol'!T21="","",'[1]243way_Regular Symbol'!T21)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6">
         <f>IF('[1]243way_Regular Symbol'!U21="","",'[1]243way_Regular Symbol'!U21)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6">
         <f>IF('[1]243way_Regular Symbol'!V21="","",'[1]243way_Regular Symbol'!V21)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <f>IF('[1]243way_Regular Symbol'!W21="","",'[1]243way_Regular Symbol'!W21)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E19" s="6">
         <f>IF('[1]243way_Regular Symbol'!X21="","",'[1]243way_Regular Symbol'!X21)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6">
         <f>IF('[1]243way_Regular Symbol'!T22="","",'[1]243way_Regular Symbol'!T22)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" s="6">
         <f>IF('[1]243way_Regular Symbol'!U22="","",'[1]243way_Regular Symbol'!U22)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C20" s="6">
         <f>IF('[1]243way_Regular Symbol'!V22="","",'[1]243way_Regular Symbol'!V22)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20" s="6">
         <f>IF('[1]243way_Regular Symbol'!W22="","",'[1]243way_Regular Symbol'!W22)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6">
         <f>IF('[1]243way_Regular Symbol'!X22="","",'[1]243way_Regular Symbol'!X22)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2581,37 +3877,37 @@
       </c>
       <c r="C21" s="6">
         <f>IF('[1]243way_Regular Symbol'!V23="","",'[1]243way_Regular Symbol'!V23)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6">
         <f>IF('[1]243way_Regular Symbol'!W23="","",'[1]243way_Regular Symbol'!W23)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E21" s="6">
         <f>IF('[1]243way_Regular Symbol'!X23="","",'[1]243way_Regular Symbol'!X23)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6">
         <f>IF('[1]243way_Regular Symbol'!T24="","",'[1]243way_Regular Symbol'!T24)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B22" s="6">
         <f>IF('[1]243way_Regular Symbol'!U24="","",'[1]243way_Regular Symbol'!U24)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C22" s="6">
         <f>IF('[1]243way_Regular Symbol'!V24="","",'[1]243way_Regular Symbol'!V24)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D22" s="6">
         <f>IF('[1]243way_Regular Symbol'!W24="","",'[1]243way_Regular Symbol'!W24)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E22" s="6">
         <f>IF('[1]243way_Regular Symbol'!X24="","",'[1]243way_Regular Symbol'!X24)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2621,7 +3917,7 @@
       </c>
       <c r="B23" s="6">
         <f>IF('[1]243way_Regular Symbol'!U25="","",'[1]243way_Regular Symbol'!U25)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C23" s="6">
         <f>IF('[1]243way_Regular Symbol'!V25="","",'[1]243way_Regular Symbol'!V25)</f>
@@ -2629,11 +3925,11 @@
       </c>
       <c r="D23" s="6">
         <f>IF('[1]243way_Regular Symbol'!W25="","",'[1]243way_Regular Symbol'!W25)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="6">
         <f>IF('[1]243way_Regular Symbol'!X25="","",'[1]243way_Regular Symbol'!X25)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2643,29 +3939,29 @@
       </c>
       <c r="B24" s="6">
         <f>IF('[1]243way_Regular Symbol'!U26="","",'[1]243way_Regular Symbol'!U26)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24" s="6">
         <f>IF('[1]243way_Regular Symbol'!V26="","",'[1]243way_Regular Symbol'!V26)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="6">
         <f>IF('[1]243way_Regular Symbol'!W26="","",'[1]243way_Regular Symbol'!W26)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" s="6">
         <f>IF('[1]243way_Regular Symbol'!X26="","",'[1]243way_Regular Symbol'!X26)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6">
         <f>IF('[1]243way_Regular Symbol'!T27="","",'[1]243way_Regular Symbol'!T27)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B25" s="6">
         <f>IF('[1]243way_Regular Symbol'!U27="","",'[1]243way_Regular Symbol'!U27)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="6">
         <f>IF('[1]243way_Regular Symbol'!V27="","",'[1]243way_Regular Symbol'!V27)</f>
@@ -2673,39 +3969,39 @@
       </c>
       <c r="D25" s="6">
         <f>IF('[1]243way_Regular Symbol'!W27="","",'[1]243way_Regular Symbol'!W27)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" s="6">
         <f>IF('[1]243way_Regular Symbol'!X27="","",'[1]243way_Regular Symbol'!X27)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6">
         <f>IF('[1]243way_Regular Symbol'!T28="","",'[1]243way_Regular Symbol'!T28)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" s="6">
         <f>IF('[1]243way_Regular Symbol'!U28="","",'[1]243way_Regular Symbol'!U28)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26" s="6">
         <f>IF('[1]243way_Regular Symbol'!V28="","",'[1]243way_Regular Symbol'!V28)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="6">
         <f>IF('[1]243way_Regular Symbol'!W28="","",'[1]243way_Regular Symbol'!W28)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26" s="6">
         <f>IF('[1]243way_Regular Symbol'!X28="","",'[1]243way_Regular Symbol'!X28)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6">
         <f>IF('[1]243way_Regular Symbol'!T29="","",'[1]243way_Regular Symbol'!T29)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B27" s="6">
         <f>IF('[1]243way_Regular Symbol'!U29="","",'[1]243way_Regular Symbol'!U29)</f>
@@ -2713,29 +4009,29 @@
       </c>
       <c r="C27" s="6">
         <f>IF('[1]243way_Regular Symbol'!V29="","",'[1]243way_Regular Symbol'!V29)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D27" s="6">
         <f>IF('[1]243way_Regular Symbol'!W29="","",'[1]243way_Regular Symbol'!W29)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="6">
         <f>IF('[1]243way_Regular Symbol'!X29="","",'[1]243way_Regular Symbol'!X29)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6">
         <f>IF('[1]243way_Regular Symbol'!T30="","",'[1]243way_Regular Symbol'!T30)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B28" s="6">
         <f>IF('[1]243way_Regular Symbol'!U30="","",'[1]243way_Regular Symbol'!U30)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C28" s="6">
         <f>IF('[1]243way_Regular Symbol'!V30="","",'[1]243way_Regular Symbol'!V30)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6">
         <f>IF('[1]243way_Regular Symbol'!W30="","",'[1]243way_Regular Symbol'!W30)</f>
@@ -2743,21 +4039,21 @@
       </c>
       <c r="E28" s="6">
         <f>IF('[1]243way_Regular Symbol'!X30="","",'[1]243way_Regular Symbol'!X30)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6">
         <f>IF('[1]243way_Regular Symbol'!T31="","",'[1]243way_Regular Symbol'!T31)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B29" s="6">
         <f>IF('[1]243way_Regular Symbol'!U31="","",'[1]243way_Regular Symbol'!U31)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" s="6">
         <f>IF('[1]243way_Regular Symbol'!V31="","",'[1]243way_Regular Symbol'!V31)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" s="6">
         <f>IF('[1]243way_Regular Symbol'!W31="","",'[1]243way_Regular Symbol'!W31)</f>
@@ -2771,11 +4067,11 @@
     <row r="30" spans="1:5">
       <c r="A30" s="6">
         <f>IF('[1]243way_Regular Symbol'!T32="","",'[1]243way_Regular Symbol'!T32)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" s="6">
         <f>IF('[1]243way_Regular Symbol'!U32="","",'[1]243way_Regular Symbol'!U32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="6">
         <f>IF('[1]243way_Regular Symbol'!V32="","",'[1]243way_Regular Symbol'!V32)</f>
@@ -2783,43 +4079,43 @@
       </c>
       <c r="D30" s="6">
         <f>IF('[1]243way_Regular Symbol'!W32="","",'[1]243way_Regular Symbol'!W32)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" s="6">
         <f>IF('[1]243way_Regular Symbol'!X32="","",'[1]243way_Regular Symbol'!X32)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6">
         <f>IF('[1]243way_Regular Symbol'!T33="","",'[1]243way_Regular Symbol'!T33)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="6">
         <f>IF('[1]243way_Regular Symbol'!U33="","",'[1]243way_Regular Symbol'!U33)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" s="6">
         <f>IF('[1]243way_Regular Symbol'!V33="","",'[1]243way_Regular Symbol'!V33)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="6">
         <f>IF('[1]243way_Regular Symbol'!W33="","",'[1]243way_Regular Symbol'!W33)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" s="6">
         <f>IF('[1]243way_Regular Symbol'!X33="","",'[1]243way_Regular Symbol'!X33)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="6" t="str">
+      <c r="A32" s="6">
         <f>IF('[1]243way_Regular Symbol'!T34="","",'[1]243way_Regular Symbol'!T34)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="B32" s="6">
         <f>IF('[1]243way_Regular Symbol'!U34="","",'[1]243way_Regular Symbol'!U34)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" s="6">
         <f>IF('[1]243way_Regular Symbol'!V34="","",'[1]243way_Regular Symbol'!V34)</f>
@@ -2835,9 +4131,9 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="6" t="str">
+      <c r="A33" s="6">
         <f>IF('[1]243way_Regular Symbol'!T35="","",'[1]243way_Regular Symbol'!T35)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="B33" s="6">
         <f>IF('[1]243way_Regular Symbol'!U35="","",'[1]243way_Regular Symbol'!U35)</f>
@@ -2849,25 +4145,25 @@
       </c>
       <c r="D33" s="6">
         <f>IF('[1]243way_Regular Symbol'!W35="","",'[1]243way_Regular Symbol'!W35)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" s="6">
         <f>IF('[1]243way_Regular Symbol'!X35="","",'[1]243way_Regular Symbol'!X35)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="6" t="str">
+      <c r="A34" s="6">
         <f>IF('[1]243way_Regular Symbol'!T36="","",'[1]243way_Regular Symbol'!T36)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B34" s="6">
         <f>IF('[1]243way_Regular Symbol'!U36="","",'[1]243way_Regular Symbol'!U36)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C34" s="6">
         <f>IF('[1]243way_Regular Symbol'!V36="","",'[1]243way_Regular Symbol'!V36)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D34" s="6">
         <f>IF('[1]243way_Regular Symbol'!W36="","",'[1]243way_Regular Symbol'!W36)</f>
@@ -2875,13 +4171,13 @@
       </c>
       <c r="E34" s="6">
         <f>IF('[1]243way_Regular Symbol'!X36="","",'[1]243way_Regular Symbol'!X36)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="6" t="str">
+      <c r="A35" s="6">
         <f>IF('[1]243way_Regular Symbol'!T37="","",'[1]243way_Regular Symbol'!T37)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="B35" s="6">
         <f>IF('[1]243way_Regular Symbol'!U37="","",'[1]243way_Regular Symbol'!U37)</f>
@@ -2897,13 +4193,13 @@
       </c>
       <c r="E35" s="6">
         <f>IF('[1]243way_Regular Symbol'!X37="","",'[1]243way_Regular Symbol'!X37)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="6" t="str">
+      <c r="A36" s="6">
         <f>IF('[1]243way_Regular Symbol'!T38="","",'[1]243way_Regular Symbol'!T38)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="B36" s="6">
         <f>IF('[1]243way_Regular Symbol'!U38="","",'[1]243way_Regular Symbol'!U38)</f>
@@ -2911,7 +4207,7 @@
       </c>
       <c r="C36" s="6">
         <f>IF('[1]243way_Regular Symbol'!V38="","",'[1]243way_Regular Symbol'!V38)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D36" s="6">
         <f>IF('[1]243way_Regular Symbol'!W38="","",'[1]243way_Regular Symbol'!W38)</f>
@@ -2923,9 +4219,9 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="6" t="str">
+      <c r="A37" s="6">
         <f>IF('[1]243way_Regular Symbol'!T39="","",'[1]243way_Regular Symbol'!T39)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="B37" s="6">
         <f>IF('[1]243way_Regular Symbol'!U39="","",'[1]243way_Regular Symbol'!U39)</f>
@@ -2937,17 +4233,17 @@
       </c>
       <c r="D37" s="6">
         <f>IF('[1]243way_Regular Symbol'!W39="","",'[1]243way_Regular Symbol'!W39)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E37" s="6">
         <f>IF('[1]243way_Regular Symbol'!X39="","",'[1]243way_Regular Symbol'!X39)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="6" t="str">
+      <c r="A38" s="6">
         <f>IF('[1]243way_Regular Symbol'!T40="","",'[1]243way_Regular Symbol'!T40)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="B38" s="6">
         <f>IF('[1]243way_Regular Symbol'!U40="","",'[1]243way_Regular Symbol'!U40)</f>
@@ -2963,17 +4259,17 @@
       </c>
       <c r="E38" s="6">
         <f>IF('[1]243way_Regular Symbol'!X40="","",'[1]243way_Regular Symbol'!X40)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="6" t="str">
+      <c r="A39" s="6">
         <f>IF('[1]243way_Regular Symbol'!T41="","",'[1]243way_Regular Symbol'!T41)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B39" s="6">
         <f>IF('[1]243way_Regular Symbol'!U41="","",'[1]243way_Regular Symbol'!U41)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C39" s="6">
         <f>IF('[1]243way_Regular Symbol'!V41="","",'[1]243way_Regular Symbol'!V41)</f>
@@ -2985,21 +4281,21 @@
       </c>
       <c r="E39" s="6">
         <f>IF('[1]243way_Regular Symbol'!X41="","",'[1]243way_Regular Symbol'!X41)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="6" t="str">
+      <c r="A40" s="6">
         <f>IF('[1]243way_Regular Symbol'!T42="","",'[1]243way_Regular Symbol'!T42)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="B40" s="6">
         <f>IF('[1]243way_Regular Symbol'!U42="","",'[1]243way_Regular Symbol'!U42)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C40" s="6">
         <f>IF('[1]243way_Regular Symbol'!V42="","",'[1]243way_Regular Symbol'!V42)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D40" s="6">
         <f>IF('[1]243way_Regular Symbol'!W42="","",'[1]243way_Regular Symbol'!W42)</f>
@@ -3007,21 +4303,21 @@
       </c>
       <c r="E40" s="6">
         <f>IF('[1]243way_Regular Symbol'!X42="","",'[1]243way_Regular Symbol'!X42)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="6" t="str">
+      <c r="A41" s="6">
         <f>IF('[1]243way_Regular Symbol'!T43="","",'[1]243way_Regular Symbol'!T43)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="B41" s="6">
         <f>IF('[1]243way_Regular Symbol'!U43="","",'[1]243way_Regular Symbol'!U43)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="6">
         <f>IF('[1]243way_Regular Symbol'!V43="","",'[1]243way_Regular Symbol'!V43)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" s="6">
         <f>IF('[1]243way_Regular Symbol'!W43="","",'[1]243way_Regular Symbol'!W43)</f>
@@ -3029,21 +4325,21 @@
       </c>
       <c r="E41" s="6">
         <f>IF('[1]243way_Regular Symbol'!X43="","",'[1]243way_Regular Symbol'!X43)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="6" t="str">
+      <c r="A42" s="6">
         <f>IF('[1]243way_Regular Symbol'!T44="","",'[1]243way_Regular Symbol'!T44)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="B42" s="6">
         <f>IF('[1]243way_Regular Symbol'!U44="","",'[1]243way_Regular Symbol'!U44)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C42" s="6">
         <f>IF('[1]243way_Regular Symbol'!V44="","",'[1]243way_Regular Symbol'!V44)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" s="6">
         <f>IF('[1]243way_Regular Symbol'!W44="","",'[1]243way_Regular Symbol'!W44)</f>
@@ -3055,21 +4351,21 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="6" t="str">
+      <c r="A43" s="6">
         <f>IF('[1]243way_Regular Symbol'!T45="","",'[1]243way_Regular Symbol'!T45)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="B43" s="6">
         <f>IF('[1]243way_Regular Symbol'!U45="","",'[1]243way_Regular Symbol'!U45)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="6">
         <f>IF('[1]243way_Regular Symbol'!V45="","",'[1]243way_Regular Symbol'!V45)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D43" s="6">
         <f>IF('[1]243way_Regular Symbol'!W45="","",'[1]243way_Regular Symbol'!W45)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E43" s="6">
         <f>IF('[1]243way_Regular Symbol'!X45="","",'[1]243way_Regular Symbol'!X45)</f>
@@ -3077,9 +4373,9 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="6" t="str">
+      <c r="A44" s="6">
         <f>IF('[1]243way_Regular Symbol'!T46="","",'[1]243way_Regular Symbol'!T46)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="B44" s="6">
         <f>IF('[1]243way_Regular Symbol'!U46="","",'[1]243way_Regular Symbol'!U46)</f>
@@ -3087,11 +4383,11 @@
       </c>
       <c r="C44" s="6">
         <f>IF('[1]243way_Regular Symbol'!V46="","",'[1]243way_Regular Symbol'!V46)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" s="6">
         <f>IF('[1]243way_Regular Symbol'!W46="","",'[1]243way_Regular Symbol'!W46)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E44" s="6">
         <f>IF('[1]243way_Regular Symbol'!X46="","",'[1]243way_Regular Symbol'!X46)</f>
@@ -3099,57 +4395,57 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="6" t="str">
+      <c r="A45" s="6">
         <f>IF('[1]243way_Regular Symbol'!T47="","",'[1]243way_Regular Symbol'!T47)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="B45" s="6">
         <f>IF('[1]243way_Regular Symbol'!U47="","",'[1]243way_Regular Symbol'!U47)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C45" s="6">
         <f>IF('[1]243way_Regular Symbol'!V47="","",'[1]243way_Regular Symbol'!V47)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D45" s="6">
         <f>IF('[1]243way_Regular Symbol'!W47="","",'[1]243way_Regular Symbol'!W47)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E45" s="6">
         <f>IF('[1]243way_Regular Symbol'!X47="","",'[1]243way_Regular Symbol'!X47)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="6" t="str">
+      <c r="A46" s="6">
         <f>IF('[1]243way_Regular Symbol'!T48="","",'[1]243way_Regular Symbol'!T48)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="B46" s="6">
         <f>IF('[1]243way_Regular Symbol'!U48="","",'[1]243way_Regular Symbol'!U48)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C46" s="6">
         <f>IF('[1]243way_Regular Symbol'!V48="","",'[1]243way_Regular Symbol'!V48)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D46" s="6">
         <f>IF('[1]243way_Regular Symbol'!W48="","",'[1]243way_Regular Symbol'!W48)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" s="6">
         <f>IF('[1]243way_Regular Symbol'!X48="","",'[1]243way_Regular Symbol'!X48)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T49="","",'[1]243way_Regular Symbol'!T49)</f>
         <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T49="","",'[1]243way_Regular Symbol'!T49)</f>
-        <v/>
       </c>
       <c r="B47" s="6">
         <f>IF('[1]243way_Regular Symbol'!U49="","",'[1]243way_Regular Symbol'!U49)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C47" s="6">
         <f>IF('[1]243way_Regular Symbol'!V49="","",'[1]243way_Regular Symbol'!V49)</f>
@@ -3157,17 +4453,17 @@
       </c>
       <c r="D47" s="6">
         <f>IF('[1]243way_Regular Symbol'!W49="","",'[1]243way_Regular Symbol'!W49)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47" s="6">
         <f>IF('[1]243way_Regular Symbol'!X49="","",'[1]243way_Regular Symbol'!X49)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="6" t="str">
+      <c r="A48" s="6">
         <f>IF('[1]243way_Regular Symbol'!T50="","",'[1]243way_Regular Symbol'!T50)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="B48" s="6">
         <f>IF('[1]243way_Regular Symbol'!U50="","",'[1]243way_Regular Symbol'!U50)</f>
@@ -3175,25 +4471,25 @@
       </c>
       <c r="C48" s="6">
         <f>IF('[1]243way_Regular Symbol'!V50="","",'[1]243way_Regular Symbol'!V50)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" s="6">
         <f>IF('[1]243way_Regular Symbol'!W50="","",'[1]243way_Regular Symbol'!W50)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E48" s="6">
         <f>IF('[1]243way_Regular Symbol'!X50="","",'[1]243way_Regular Symbol'!X50)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="6" t="str">
+      <c r="A49" s="6">
         <f>IF('[1]243way_Regular Symbol'!T51="","",'[1]243way_Regular Symbol'!T51)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="B49" s="6">
         <f>IF('[1]243way_Regular Symbol'!U51="","",'[1]243way_Regular Symbol'!U51)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C49" s="6">
         <f>IF('[1]243way_Regular Symbol'!V51="","",'[1]243way_Regular Symbol'!V51)</f>
@@ -3201,69 +4497,69 @@
       </c>
       <c r="D49" s="6">
         <f>IF('[1]243way_Regular Symbol'!W51="","",'[1]243way_Regular Symbol'!W51)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E49" s="6">
         <f>IF('[1]243way_Regular Symbol'!X51="","",'[1]243way_Regular Symbol'!X51)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="6" t="str">
+      <c r="A50" s="6">
         <f>IF('[1]243way_Regular Symbol'!T52="","",'[1]243way_Regular Symbol'!T52)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="B50" s="6">
         <f>IF('[1]243way_Regular Symbol'!U52="","",'[1]243way_Regular Symbol'!U52)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" s="6">
         <f>IF('[1]243way_Regular Symbol'!V52="","",'[1]243way_Regular Symbol'!V52)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D50" s="6">
         <f>IF('[1]243way_Regular Symbol'!W52="","",'[1]243way_Regular Symbol'!W52)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E50" s="6">
         <f>IF('[1]243way_Regular Symbol'!X52="","",'[1]243way_Regular Symbol'!X52)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="6" t="str">
+      <c r="A51" s="6">
         <f>IF('[1]243way_Regular Symbol'!T53="","",'[1]243way_Regular Symbol'!T53)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B51" s="6">
         <f>IF('[1]243way_Regular Symbol'!U53="","",'[1]243way_Regular Symbol'!U53)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" s="6">
         <f>IF('[1]243way_Regular Symbol'!V53="","",'[1]243way_Regular Symbol'!V53)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="6">
         <f>IF('[1]243way_Regular Symbol'!W53="","",'[1]243way_Regular Symbol'!W53)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E51" s="6">
         <f>IF('[1]243way_Regular Symbol'!X53="","",'[1]243way_Regular Symbol'!X53)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="6" t="str">
+      <c r="A52" s="6">
         <f>IF('[1]243way_Regular Symbol'!T54="","",'[1]243way_Regular Symbol'!T54)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="B52" s="6">
         <f>IF('[1]243way_Regular Symbol'!U54="","",'[1]243way_Regular Symbol'!U54)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="6">
         <f>IF('[1]243way_Regular Symbol'!V54="","",'[1]243way_Regular Symbol'!V54)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D52" s="6">
         <f>IF('[1]243way_Regular Symbol'!W54="","",'[1]243way_Regular Symbol'!W54)</f>
@@ -3271,25 +4567,25 @@
       </c>
       <c r="E52" s="6">
         <f>IF('[1]243way_Regular Symbol'!X54="","",'[1]243way_Regular Symbol'!X54)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="6" t="str">
+      <c r="A53" s="6">
         <f>IF('[1]243way_Regular Symbol'!T55="","",'[1]243way_Regular Symbol'!T55)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B53" s="6">
         <f>IF('[1]243way_Regular Symbol'!U55="","",'[1]243way_Regular Symbol'!U55)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C53" s="6">
         <f>IF('[1]243way_Regular Symbol'!V55="","",'[1]243way_Regular Symbol'!V55)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53" s="6">
         <f>IF('[1]243way_Regular Symbol'!W55="","",'[1]243way_Regular Symbol'!W55)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E53" s="6">
         <f>IF('[1]243way_Regular Symbol'!X55="","",'[1]243way_Regular Symbol'!X55)</f>
@@ -3297,39 +4593,39 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="6" t="str">
+      <c r="A54" s="6">
         <f>IF('[1]243way_Regular Symbol'!T56="","",'[1]243way_Regular Symbol'!T56)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="B54" s="6">
         <f>IF('[1]243way_Regular Symbol'!U56="","",'[1]243way_Regular Symbol'!U56)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C54" s="6">
         <f>IF('[1]243way_Regular Symbol'!V56="","",'[1]243way_Regular Symbol'!V56)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" s="6">
         <f>IF('[1]243way_Regular Symbol'!W56="","",'[1]243way_Regular Symbol'!W56)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54" s="6">
         <f>IF('[1]243way_Regular Symbol'!X56="","",'[1]243way_Regular Symbol'!X56)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="6" t="str">
+      <c r="A55" s="6">
         <f>IF('[1]243way_Regular Symbol'!T57="","",'[1]243way_Regular Symbol'!T57)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B55" s="6">
         <f>IF('[1]243way_Regular Symbol'!U57="","",'[1]243way_Regular Symbol'!U57)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="6">
         <f>IF('[1]243way_Regular Symbol'!V57="","",'[1]243way_Regular Symbol'!V57)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D55" s="6">
         <f>IF('[1]243way_Regular Symbol'!W57="","",'[1]243way_Regular Symbol'!W57)</f>
@@ -3337,13 +4633,13 @@
       </c>
       <c r="E55" s="6">
         <f>IF('[1]243way_Regular Symbol'!X57="","",'[1]243way_Regular Symbol'!X57)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="6" t="str">
+      <c r="A56" s="6">
         <f>IF('[1]243way_Regular Symbol'!T58="","",'[1]243way_Regular Symbol'!T58)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="B56" s="6">
         <f>IF('[1]243way_Regular Symbol'!U58="","",'[1]243way_Regular Symbol'!U58)</f>
@@ -3351,1027 +4647,1027 @@
       </c>
       <c r="C56" s="6">
         <f>IF('[1]243way_Regular Symbol'!V58="","",'[1]243way_Regular Symbol'!V58)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="6">
         <f>IF('[1]243way_Regular Symbol'!W58="","",'[1]243way_Regular Symbol'!W58)</f>
-        <v>8</v>
-      </c>
-      <c r="E56" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E56" s="6">
         <f>IF('[1]243way_Regular Symbol'!X58="","",'[1]243way_Regular Symbol'!X58)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="6" t="str">
+      <c r="A57" s="6">
         <f>IF('[1]243way_Regular Symbol'!T59="","",'[1]243way_Regular Symbol'!T59)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B57" s="6">
         <f>IF('[1]243way_Regular Symbol'!U59="","",'[1]243way_Regular Symbol'!U59)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C57" s="6">
         <f>IF('[1]243way_Regular Symbol'!V59="","",'[1]243way_Regular Symbol'!V59)</f>
-        <v>1</v>
-      </c>
-      <c r="D57" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6">
         <f>IF('[1]243way_Regular Symbol'!W59="","",'[1]243way_Regular Symbol'!W59)</f>
-        <v/>
-      </c>
-      <c r="E57" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6">
         <f>IF('[1]243way_Regular Symbol'!X59="","",'[1]243way_Regular Symbol'!X59)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="6" t="str">
+      <c r="A58" s="6">
         <f>IF('[1]243way_Regular Symbol'!T60="","",'[1]243way_Regular Symbol'!T60)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="B58" s="6">
         <f>IF('[1]243way_Regular Symbol'!U60="","",'[1]243way_Regular Symbol'!U60)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C58" s="6">
         <f>IF('[1]243way_Regular Symbol'!V60="","",'[1]243way_Regular Symbol'!V60)</f>
-        <v>4</v>
-      </c>
-      <c r="D58" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D58" s="6">
         <f>IF('[1]243way_Regular Symbol'!W60="","",'[1]243way_Regular Symbol'!W60)</f>
-        <v/>
-      </c>
-      <c r="E58" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="E58" s="6">
         <f>IF('[1]243way_Regular Symbol'!X60="","",'[1]243way_Regular Symbol'!X60)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="6" t="str">
+      <c r="A59" s="6">
         <f>IF('[1]243way_Regular Symbol'!T61="","",'[1]243way_Regular Symbol'!T61)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B59" s="6">
         <f>IF('[1]243way_Regular Symbol'!U61="","",'[1]243way_Regular Symbol'!U61)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C59" s="6">
         <f>IF('[1]243way_Regular Symbol'!V61="","",'[1]243way_Regular Symbol'!V61)</f>
+        <v>11</v>
+      </c>
+      <c r="D59" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W61="","",'[1]243way_Regular Symbol'!W61)</f>
         <v>9</v>
       </c>
-      <c r="D59" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W61="","",'[1]243way_Regular Symbol'!W61)</f>
-        <v/>
-      </c>
-      <c r="E59" s="6" t="str">
+      <c r="E59" s="6">
         <f>IF('[1]243way_Regular Symbol'!X61="","",'[1]243way_Regular Symbol'!X61)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="6" t="str">
+      <c r="A60" s="6">
         <f>IF('[1]243way_Regular Symbol'!T62="","",'[1]243way_Regular Symbol'!T62)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B60" s="6">
         <f>IF('[1]243way_Regular Symbol'!U62="","",'[1]243way_Regular Symbol'!U62)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60" s="6">
         <f>IF('[1]243way_Regular Symbol'!V62="","",'[1]243way_Regular Symbol'!V62)</f>
+        <v>11</v>
+      </c>
+      <c r="D60" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W62="","",'[1]243way_Regular Symbol'!W62)</f>
+        <v>12</v>
+      </c>
+      <c r="E60" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X62="","",'[1]243way_Regular Symbol'!X62)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T63="","",'[1]243way_Regular Symbol'!T63)</f>
+        <v>13</v>
+      </c>
+      <c r="B61" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U63="","",'[1]243way_Regular Symbol'!U63)</f>
+        <v>13</v>
+      </c>
+      <c r="C61" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V63="","",'[1]243way_Regular Symbol'!V63)</f>
+        <v>7</v>
+      </c>
+      <c r="D61" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W63="","",'[1]243way_Regular Symbol'!W63)</f>
+        <v>8</v>
+      </c>
+      <c r="E61" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X63="","",'[1]243way_Regular Symbol'!X63)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T64="","",'[1]243way_Regular Symbol'!T64)</f>
+        <v>9</v>
+      </c>
+      <c r="B62" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U64="","",'[1]243way_Regular Symbol'!U64)</f>
+        <v>10</v>
+      </c>
+      <c r="C62" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V64="","",'[1]243way_Regular Symbol'!V64)</f>
+        <v>7</v>
+      </c>
+      <c r="D62" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W64="","",'[1]243way_Regular Symbol'!W64)</f>
+        <v>2</v>
+      </c>
+      <c r="E62" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X64="","",'[1]243way_Regular Symbol'!X64)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T65="","",'[1]243way_Regular Symbol'!T65)</f>
+        <v>3</v>
+      </c>
+      <c r="B63" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U65="","",'[1]243way_Regular Symbol'!U65)</f>
+        <v>3</v>
+      </c>
+      <c r="C63" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V65="","",'[1]243way_Regular Symbol'!V65)</f>
+        <v>3</v>
+      </c>
+      <c r="D63" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W65="","",'[1]243way_Regular Symbol'!W65)</f>
+        <v>8</v>
+      </c>
+      <c r="E63" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X65="","",'[1]243way_Regular Symbol'!X65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T66="","",'[1]243way_Regular Symbol'!T66)</f>
+        <v>3</v>
+      </c>
+      <c r="B64" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U66="","",'[1]243way_Regular Symbol'!U66)</f>
+        <v>3</v>
+      </c>
+      <c r="C64" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V66="","",'[1]243way_Regular Symbol'!V66)</f>
+        <v>4</v>
+      </c>
+      <c r="D64" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W66="","",'[1]243way_Regular Symbol'!W66)</f>
+        <v>7</v>
+      </c>
+      <c r="E64" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X66="","",'[1]243way_Regular Symbol'!X66)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T67="","",'[1]243way_Regular Symbol'!T67)</f>
+        <v>2</v>
+      </c>
+      <c r="B65" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U67="","",'[1]243way_Regular Symbol'!U67)</f>
+        <v>2</v>
+      </c>
+      <c r="C65" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V67="","",'[1]243way_Regular Symbol'!V67)</f>
+        <v>4</v>
+      </c>
+      <c r="D65" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W67="","",'[1]243way_Regular Symbol'!W67)</f>
+        <v>11</v>
+      </c>
+      <c r="E65" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X67="","",'[1]243way_Regular Symbol'!X67)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T68="","",'[1]243way_Regular Symbol'!T68)</f>
+        <v>2</v>
+      </c>
+      <c r="B66" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U68="","",'[1]243way_Regular Symbol'!U68)</f>
+        <v>2</v>
+      </c>
+      <c r="C66" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V68="","",'[1]243way_Regular Symbol'!V68)</f>
+        <v>7</v>
+      </c>
+      <c r="D66" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W68="","",'[1]243way_Regular Symbol'!W68)</f>
+        <v>11</v>
+      </c>
+      <c r="E66" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X68="","",'[1]243way_Regular Symbol'!X68)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T69="","",'[1]243way_Regular Symbol'!T69)</f>
+        <v>9</v>
+      </c>
+      <c r="B67" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U69="","",'[1]243way_Regular Symbol'!U69)</f>
+        <v>10</v>
+      </c>
+      <c r="C67" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V69="","",'[1]243way_Regular Symbol'!V69)</f>
+        <v>7</v>
+      </c>
+      <c r="D67" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W69="","",'[1]243way_Regular Symbol'!W69)</f>
+        <v>11</v>
+      </c>
+      <c r="E67" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X69="","",'[1]243way_Regular Symbol'!X69)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T70="","",'[1]243way_Regular Symbol'!T70)</f>
+        <v>13</v>
+      </c>
+      <c r="B68" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U70="","",'[1]243way_Regular Symbol'!U70)</f>
+        <v>13</v>
+      </c>
+      <c r="C68" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V70="","",'[1]243way_Regular Symbol'!V70)</f>
+        <v>8</v>
+      </c>
+      <c r="D68" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W70="","",'[1]243way_Regular Symbol'!W70)</f>
+        <v>11</v>
+      </c>
+      <c r="E68" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X70="","",'[1]243way_Regular Symbol'!X70)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T71="","",'[1]243way_Regular Symbol'!T71)</f>
+        <v>8</v>
+      </c>
+      <c r="B69" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U71="","",'[1]243way_Regular Symbol'!U71)</f>
+        <v>7</v>
+      </c>
+      <c r="C69" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V71="","",'[1]243way_Regular Symbol'!V71)</f>
+        <v>3</v>
+      </c>
+      <c r="D69" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W71="","",'[1]243way_Regular Symbol'!W71)</f>
+        <v>11</v>
+      </c>
+      <c r="E69" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X71="","",'[1]243way_Regular Symbol'!X71)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T72="","",'[1]243way_Regular Symbol'!T72)</f>
+        <v>10</v>
+      </c>
+      <c r="B70" s="6">
+        <f>IF('[1]243way_Regular Symbol'!U72="","",'[1]243way_Regular Symbol'!U72)</f>
+        <v>10</v>
+      </c>
+      <c r="C70" s="6">
+        <f>IF('[1]243way_Regular Symbol'!V72="","",'[1]243way_Regular Symbol'!V72)</f>
+        <v>5</v>
+      </c>
+      <c r="D70" s="6">
+        <f>IF('[1]243way_Regular Symbol'!W72="","",'[1]243way_Regular Symbol'!W72)</f>
+        <v>8</v>
+      </c>
+      <c r="E70" s="6">
+        <f>IF('[1]243way_Regular Symbol'!X72="","",'[1]243way_Regular Symbol'!X72)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="6">
+        <f>IF('[1]243way_Regular Symbol'!T73="","",'[1]243way_Regular Symbol'!T73)</f>
         <v>6</v>
       </c>
-      <c r="D60" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W62="","",'[1]243way_Regular Symbol'!W62)</f>
-        <v/>
-      </c>
-      <c r="E60" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X62="","",'[1]243way_Regular Symbol'!X62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T63="","",'[1]243way_Regular Symbol'!T63)</f>
-        <v/>
-      </c>
-      <c r="B61" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U63="","",'[1]243way_Regular Symbol'!U63)</f>
-        <v/>
-      </c>
-      <c r="C61" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V63="","",'[1]243way_Regular Symbol'!V63)</f>
-        <v/>
-      </c>
-      <c r="D61" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W63="","",'[1]243way_Regular Symbol'!W63)</f>
-        <v/>
-      </c>
-      <c r="E61" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X63="","",'[1]243way_Regular Symbol'!X63)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T64="","",'[1]243way_Regular Symbol'!T64)</f>
-        <v/>
-      </c>
-      <c r="B62" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U64="","",'[1]243way_Regular Symbol'!U64)</f>
-        <v/>
-      </c>
-      <c r="C62" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V64="","",'[1]243way_Regular Symbol'!V64)</f>
-        <v/>
-      </c>
-      <c r="D62" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W64="","",'[1]243way_Regular Symbol'!W64)</f>
-        <v/>
-      </c>
-      <c r="E62" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X64="","",'[1]243way_Regular Symbol'!X64)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T65="","",'[1]243way_Regular Symbol'!T65)</f>
-        <v/>
-      </c>
-      <c r="B63" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U65="","",'[1]243way_Regular Symbol'!U65)</f>
-        <v/>
-      </c>
-      <c r="C63" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V65="","",'[1]243way_Regular Symbol'!V65)</f>
-        <v/>
-      </c>
-      <c r="D63" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W65="","",'[1]243way_Regular Symbol'!W65)</f>
-        <v/>
-      </c>
-      <c r="E63" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X65="","",'[1]243way_Regular Symbol'!X65)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T66="","",'[1]243way_Regular Symbol'!T66)</f>
-        <v/>
-      </c>
-      <c r="B64" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U66="","",'[1]243way_Regular Symbol'!U66)</f>
-        <v/>
-      </c>
-      <c r="C64" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V66="","",'[1]243way_Regular Symbol'!V66)</f>
-        <v/>
-      </c>
-      <c r="D64" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W66="","",'[1]243way_Regular Symbol'!W66)</f>
-        <v/>
-      </c>
-      <c r="E64" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X66="","",'[1]243way_Regular Symbol'!X66)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T67="","",'[1]243way_Regular Symbol'!T67)</f>
-        <v/>
-      </c>
-      <c r="B65" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U67="","",'[1]243way_Regular Symbol'!U67)</f>
-        <v/>
-      </c>
-      <c r="C65" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V67="","",'[1]243way_Regular Symbol'!V67)</f>
-        <v/>
-      </c>
-      <c r="D65" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W67="","",'[1]243way_Regular Symbol'!W67)</f>
-        <v/>
-      </c>
-      <c r="E65" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X67="","",'[1]243way_Regular Symbol'!X67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T68="","",'[1]243way_Regular Symbol'!T68)</f>
-        <v/>
-      </c>
-      <c r="B66" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U68="","",'[1]243way_Regular Symbol'!U68)</f>
-        <v/>
-      </c>
-      <c r="C66" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V68="","",'[1]243way_Regular Symbol'!V68)</f>
-        <v/>
-      </c>
-      <c r="D66" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W68="","",'[1]243way_Regular Symbol'!W68)</f>
-        <v/>
-      </c>
-      <c r="E66" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X68="","",'[1]243way_Regular Symbol'!X68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T69="","",'[1]243way_Regular Symbol'!T69)</f>
-        <v/>
-      </c>
-      <c r="B67" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U69="","",'[1]243way_Regular Symbol'!U69)</f>
-        <v/>
-      </c>
-      <c r="C67" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V69="","",'[1]243way_Regular Symbol'!V69)</f>
-        <v/>
-      </c>
-      <c r="D67" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W69="","",'[1]243way_Regular Symbol'!W69)</f>
-        <v/>
-      </c>
-      <c r="E67" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X69="","",'[1]243way_Regular Symbol'!X69)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T70="","",'[1]243way_Regular Symbol'!T70)</f>
-        <v/>
-      </c>
-      <c r="B68" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U70="","",'[1]243way_Regular Symbol'!U70)</f>
-        <v/>
-      </c>
-      <c r="C68" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V70="","",'[1]243way_Regular Symbol'!V70)</f>
-        <v/>
-      </c>
-      <c r="D68" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W70="","",'[1]243way_Regular Symbol'!W70)</f>
-        <v/>
-      </c>
-      <c r="E68" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X70="","",'[1]243way_Regular Symbol'!X70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T71="","",'[1]243way_Regular Symbol'!T71)</f>
-        <v/>
-      </c>
-      <c r="B69" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U71="","",'[1]243way_Regular Symbol'!U71)</f>
-        <v/>
-      </c>
-      <c r="C69" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V71="","",'[1]243way_Regular Symbol'!V71)</f>
-        <v/>
-      </c>
-      <c r="D69" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W71="","",'[1]243way_Regular Symbol'!W71)</f>
-        <v/>
-      </c>
-      <c r="E69" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X71="","",'[1]243way_Regular Symbol'!X71)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T72="","",'[1]243way_Regular Symbol'!T72)</f>
-        <v/>
-      </c>
-      <c r="B70" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!U72="","",'[1]243way_Regular Symbol'!U72)</f>
-        <v/>
-      </c>
-      <c r="C70" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!V72="","",'[1]243way_Regular Symbol'!V72)</f>
-        <v/>
-      </c>
-      <c r="D70" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!W72="","",'[1]243way_Regular Symbol'!W72)</f>
-        <v/>
-      </c>
-      <c r="E70" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!X72="","",'[1]243way_Regular Symbol'!X72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="6" t="str">
-        <f>IF('[1]243way_Regular Symbol'!T73="","",'[1]243way_Regular Symbol'!T73)</f>
-        <v/>
-      </c>
-      <c r="B71" s="6" t="str">
+      <c r="B71" s="6">
         <f>IF('[1]243way_Regular Symbol'!U73="","",'[1]243way_Regular Symbol'!U73)</f>
-        <v/>
-      </c>
-      <c r="C71" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="C71" s="6">
         <f>IF('[1]243way_Regular Symbol'!V73="","",'[1]243way_Regular Symbol'!V73)</f>
-        <v/>
-      </c>
-      <c r="D71" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6">
         <f>IF('[1]243way_Regular Symbol'!W73="","",'[1]243way_Regular Symbol'!W73)</f>
-        <v/>
-      </c>
-      <c r="E71" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E71" s="6">
         <f>IF('[1]243way_Regular Symbol'!X73="","",'[1]243way_Regular Symbol'!X73)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="6" t="str">
+      <c r="A72" s="6">
         <f>IF('[1]243way_Regular Symbol'!T74="","",'[1]243way_Regular Symbol'!T74)</f>
-        <v/>
-      </c>
-      <c r="B72" s="6" t="str">
+        <v>13</v>
+      </c>
+      <c r="B72" s="6">
         <f>IF('[1]243way_Regular Symbol'!U74="","",'[1]243way_Regular Symbol'!U74)</f>
-        <v/>
-      </c>
-      <c r="C72" s="6" t="str">
+        <v>13</v>
+      </c>
+      <c r="C72" s="6">
         <f>IF('[1]243way_Regular Symbol'!V74="","",'[1]243way_Regular Symbol'!V74)</f>
-        <v/>
-      </c>
-      <c r="D72" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D72" s="6">
         <f>IF('[1]243way_Regular Symbol'!W74="","",'[1]243way_Regular Symbol'!W74)</f>
-        <v/>
-      </c>
-      <c r="E72" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E72" s="6">
         <f>IF('[1]243way_Regular Symbol'!X74="","",'[1]243way_Regular Symbol'!X74)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="6" t="str">
+      <c r="A73" s="6">
         <f>IF('[1]243way_Regular Symbol'!T75="","",'[1]243way_Regular Symbol'!T75)</f>
-        <v/>
-      </c>
-      <c r="B73" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="B73" s="6">
         <f>IF('[1]243way_Regular Symbol'!U75="","",'[1]243way_Regular Symbol'!U75)</f>
-        <v/>
-      </c>
-      <c r="C73" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="C73" s="6">
         <f>IF('[1]243way_Regular Symbol'!V75="","",'[1]243way_Regular Symbol'!V75)</f>
-        <v/>
-      </c>
-      <c r="D73" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="D73" s="6">
         <f>IF('[1]243way_Regular Symbol'!W75="","",'[1]243way_Regular Symbol'!W75)</f>
-        <v/>
-      </c>
-      <c r="E73" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E73" s="6">
         <f>IF('[1]243way_Regular Symbol'!X75="","",'[1]243way_Regular Symbol'!X75)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="6" t="str">
+      <c r="A74" s="6">
         <f>IF('[1]243way_Regular Symbol'!T76="","",'[1]243way_Regular Symbol'!T76)</f>
-        <v/>
-      </c>
-      <c r="B74" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="B74" s="6">
         <f>IF('[1]243way_Regular Symbol'!U76="","",'[1]243way_Regular Symbol'!U76)</f>
-        <v/>
-      </c>
-      <c r="C74" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="C74" s="6">
         <f>IF('[1]243way_Regular Symbol'!V76="","",'[1]243way_Regular Symbol'!V76)</f>
-        <v/>
-      </c>
-      <c r="D74" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="D74" s="6">
         <f>IF('[1]243way_Regular Symbol'!W76="","",'[1]243way_Regular Symbol'!W76)</f>
-        <v/>
-      </c>
-      <c r="E74" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="E74" s="6">
         <f>IF('[1]243way_Regular Symbol'!X76="","",'[1]243way_Regular Symbol'!X76)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="6" t="str">
+      <c r="A75" s="6">
         <f>IF('[1]243way_Regular Symbol'!T77="","",'[1]243way_Regular Symbol'!T77)</f>
-        <v/>
-      </c>
-      <c r="B75" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="B75" s="6">
         <f>IF('[1]243way_Regular Symbol'!U77="","",'[1]243way_Regular Symbol'!U77)</f>
-        <v/>
-      </c>
-      <c r="C75" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="C75" s="6">
         <f>IF('[1]243way_Regular Symbol'!V77="","",'[1]243way_Regular Symbol'!V77)</f>
-        <v/>
-      </c>
-      <c r="D75" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D75" s="6">
         <f>IF('[1]243way_Regular Symbol'!W77="","",'[1]243way_Regular Symbol'!W77)</f>
-        <v/>
-      </c>
-      <c r="E75" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="E75" s="6">
         <f>IF('[1]243way_Regular Symbol'!X77="","",'[1]243way_Regular Symbol'!X77)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="6" t="str">
+      <c r="A76" s="6">
         <f>IF('[1]243way_Regular Symbol'!T78="","",'[1]243way_Regular Symbol'!T78)</f>
-        <v/>
-      </c>
-      <c r="B76" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="B76" s="6">
         <f>IF('[1]243way_Regular Symbol'!U78="","",'[1]243way_Regular Symbol'!U78)</f>
-        <v/>
-      </c>
-      <c r="C76" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="C76" s="6">
         <f>IF('[1]243way_Regular Symbol'!V78="","",'[1]243way_Regular Symbol'!V78)</f>
-        <v/>
-      </c>
-      <c r="D76" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="D76" s="6">
         <f>IF('[1]243way_Regular Symbol'!W78="","",'[1]243way_Regular Symbol'!W78)</f>
-        <v/>
-      </c>
-      <c r="E76" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E76" s="6">
         <f>IF('[1]243way_Regular Symbol'!X78="","",'[1]243way_Regular Symbol'!X78)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="6" t="str">
+      <c r="A77" s="6">
         <f>IF('[1]243way_Regular Symbol'!T79="","",'[1]243way_Regular Symbol'!T79)</f>
-        <v/>
-      </c>
-      <c r="B77" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="B77" s="6">
         <f>IF('[1]243way_Regular Symbol'!U79="","",'[1]243way_Regular Symbol'!U79)</f>
-        <v/>
-      </c>
-      <c r="C77" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="C77" s="6">
         <f>IF('[1]243way_Regular Symbol'!V79="","",'[1]243way_Regular Symbol'!V79)</f>
-        <v/>
-      </c>
-      <c r="D77" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D77" s="6">
         <f>IF('[1]243way_Regular Symbol'!W79="","",'[1]243way_Regular Symbol'!W79)</f>
-        <v/>
-      </c>
-      <c r="E77" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E77" s="6">
         <f>IF('[1]243way_Regular Symbol'!X79="","",'[1]243way_Regular Symbol'!X79)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="6" t="str">
+      <c r="A78" s="6">
         <f>IF('[1]243way_Regular Symbol'!T80="","",'[1]243way_Regular Symbol'!T80)</f>
-        <v/>
-      </c>
-      <c r="B78" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="B78" s="6">
         <f>IF('[1]243way_Regular Symbol'!U80="","",'[1]243way_Regular Symbol'!U80)</f>
-        <v/>
-      </c>
-      <c r="C78" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="C78" s="6">
         <f>IF('[1]243way_Regular Symbol'!V80="","",'[1]243way_Regular Symbol'!V80)</f>
-        <v/>
-      </c>
-      <c r="D78" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D78" s="6">
         <f>IF('[1]243way_Regular Symbol'!W80="","",'[1]243way_Regular Symbol'!W80)</f>
-        <v/>
-      </c>
-      <c r="E78" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E78" s="6">
         <f>IF('[1]243way_Regular Symbol'!X80="","",'[1]243way_Regular Symbol'!X80)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="6" t="str">
+      <c r="A79" s="6">
         <f>IF('[1]243way_Regular Symbol'!T81="","",'[1]243way_Regular Symbol'!T81)</f>
-        <v/>
-      </c>
-      <c r="B79" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="B79" s="6">
         <f>IF('[1]243way_Regular Symbol'!U81="","",'[1]243way_Regular Symbol'!U81)</f>
-        <v/>
-      </c>
-      <c r="C79" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="C79" s="6">
         <f>IF('[1]243way_Regular Symbol'!V81="","",'[1]243way_Regular Symbol'!V81)</f>
-        <v/>
-      </c>
-      <c r="D79" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="D79" s="6">
         <f>IF('[1]243way_Regular Symbol'!W81="","",'[1]243way_Regular Symbol'!W81)</f>
-        <v/>
-      </c>
-      <c r="E79" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E79" s="6">
         <f>IF('[1]243way_Regular Symbol'!X81="","",'[1]243way_Regular Symbol'!X81)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="6" t="str">
+      <c r="A80" s="6">
         <f>IF('[1]243way_Regular Symbol'!T82="","",'[1]243way_Regular Symbol'!T82)</f>
-        <v/>
-      </c>
-      <c r="B80" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="B80" s="6">
         <f>IF('[1]243way_Regular Symbol'!U82="","",'[1]243way_Regular Symbol'!U82)</f>
-        <v/>
-      </c>
-      <c r="C80" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="C80" s="6">
         <f>IF('[1]243way_Regular Symbol'!V82="","",'[1]243way_Regular Symbol'!V82)</f>
-        <v/>
-      </c>
-      <c r="D80" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="D80" s="6">
         <f>IF('[1]243way_Regular Symbol'!W82="","",'[1]243way_Regular Symbol'!W82)</f>
-        <v/>
-      </c>
-      <c r="E80" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E80" s="6">
         <f>IF('[1]243way_Regular Symbol'!X82="","",'[1]243way_Regular Symbol'!X82)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="6" t="str">
+      <c r="A81" s="6">
         <f>IF('[1]243way_Regular Symbol'!T83="","",'[1]243way_Regular Symbol'!T83)</f>
-        <v/>
-      </c>
-      <c r="B81" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="B81" s="6">
         <f>IF('[1]243way_Regular Symbol'!U83="","",'[1]243way_Regular Symbol'!U83)</f>
-        <v/>
-      </c>
-      <c r="C81" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6">
         <f>IF('[1]243way_Regular Symbol'!V83="","",'[1]243way_Regular Symbol'!V83)</f>
-        <v/>
-      </c>
-      <c r="D81" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D81" s="6">
         <f>IF('[1]243way_Regular Symbol'!W83="","",'[1]243way_Regular Symbol'!W83)</f>
-        <v/>
-      </c>
-      <c r="E81" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="E81" s="6">
         <f>IF('[1]243way_Regular Symbol'!X83="","",'[1]243way_Regular Symbol'!X83)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="6" t="str">
+      <c r="A82" s="6">
         <f>IF('[1]243way_Regular Symbol'!T84="","",'[1]243way_Regular Symbol'!T84)</f>
-        <v/>
-      </c>
-      <c r="B82" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="B82" s="6">
         <f>IF('[1]243way_Regular Symbol'!U84="","",'[1]243way_Regular Symbol'!U84)</f>
-        <v/>
-      </c>
-      <c r="C82" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C82" s="6">
         <f>IF('[1]243way_Regular Symbol'!V84="","",'[1]243way_Regular Symbol'!V84)</f>
-        <v/>
-      </c>
-      <c r="D82" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6">
         <f>IF('[1]243way_Regular Symbol'!W84="","",'[1]243way_Regular Symbol'!W84)</f>
-        <v/>
-      </c>
-      <c r="E82" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="E82" s="6">
         <f>IF('[1]243way_Regular Symbol'!X84="","",'[1]243way_Regular Symbol'!X84)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="6" t="str">
+      <c r="A83" s="6">
         <f>IF('[1]243way_Regular Symbol'!T85="","",'[1]243way_Regular Symbol'!T85)</f>
-        <v/>
-      </c>
-      <c r="B83" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="B83" s="6">
         <f>IF('[1]243way_Regular Symbol'!U85="","",'[1]243way_Regular Symbol'!U85)</f>
-        <v/>
-      </c>
-      <c r="C83" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6">
         <f>IF('[1]243way_Regular Symbol'!V85="","",'[1]243way_Regular Symbol'!V85)</f>
-        <v/>
-      </c>
-      <c r="D83" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6">
         <f>IF('[1]243way_Regular Symbol'!W85="","",'[1]243way_Regular Symbol'!W85)</f>
-        <v/>
-      </c>
-      <c r="E83" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6">
         <f>IF('[1]243way_Regular Symbol'!X85="","",'[1]243way_Regular Symbol'!X85)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="6" t="str">
+      <c r="A84" s="6">
         <f>IF('[1]243way_Regular Symbol'!T86="","",'[1]243way_Regular Symbol'!T86)</f>
-        <v/>
-      </c>
-      <c r="B84" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="B84" s="6">
         <f>IF('[1]243way_Regular Symbol'!U86="","",'[1]243way_Regular Symbol'!U86)</f>
-        <v/>
-      </c>
-      <c r="C84" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="C84" s="6">
         <f>IF('[1]243way_Regular Symbol'!V86="","",'[1]243way_Regular Symbol'!V86)</f>
-        <v/>
-      </c>
-      <c r="D84" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6">
         <f>IF('[1]243way_Regular Symbol'!W86="","",'[1]243way_Regular Symbol'!W86)</f>
-        <v/>
-      </c>
-      <c r="E84" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E84" s="6">
         <f>IF('[1]243way_Regular Symbol'!X86="","",'[1]243way_Regular Symbol'!X86)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="6" t="str">
+      <c r="A85" s="6">
         <f>IF('[1]243way_Regular Symbol'!T87="","",'[1]243way_Regular Symbol'!T87)</f>
-        <v/>
-      </c>
-      <c r="B85" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="B85" s="6">
         <f>IF('[1]243way_Regular Symbol'!U87="","",'[1]243way_Regular Symbol'!U87)</f>
-        <v/>
-      </c>
-      <c r="C85" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="C85" s="6">
         <f>IF('[1]243way_Regular Symbol'!V87="","",'[1]243way_Regular Symbol'!V87)</f>
-        <v/>
-      </c>
-      <c r="D85" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D85" s="6">
         <f>IF('[1]243way_Regular Symbol'!W87="","",'[1]243way_Regular Symbol'!W87)</f>
-        <v/>
-      </c>
-      <c r="E85" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
         <f>IF('[1]243way_Regular Symbol'!X87="","",'[1]243way_Regular Symbol'!X87)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="6" t="str">
+      <c r="A86" s="6">
         <f>IF('[1]243way_Regular Symbol'!T88="","",'[1]243way_Regular Symbol'!T88)</f>
-        <v/>
-      </c>
-      <c r="B86" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="B86" s="6">
         <f>IF('[1]243way_Regular Symbol'!U88="","",'[1]243way_Regular Symbol'!U88)</f>
-        <v/>
-      </c>
-      <c r="C86" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="C86" s="6">
         <f>IF('[1]243way_Regular Symbol'!V88="","",'[1]243way_Regular Symbol'!V88)</f>
-        <v/>
-      </c>
-      <c r="D86" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="D86" s="6">
         <f>IF('[1]243way_Regular Symbol'!W88="","",'[1]243way_Regular Symbol'!W88)</f>
-        <v/>
-      </c>
-      <c r="E86" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="E86" s="6">
         <f>IF('[1]243way_Regular Symbol'!X88="","",'[1]243way_Regular Symbol'!X88)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="6" t="str">
+      <c r="A87" s="6">
         <f>IF('[1]243way_Regular Symbol'!T89="","",'[1]243way_Regular Symbol'!T89)</f>
-        <v/>
-      </c>
-      <c r="B87" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="B87" s="6">
         <f>IF('[1]243way_Regular Symbol'!U89="","",'[1]243way_Regular Symbol'!U89)</f>
-        <v/>
-      </c>
-      <c r="C87" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C87" s="6">
         <f>IF('[1]243way_Regular Symbol'!V89="","",'[1]243way_Regular Symbol'!V89)</f>
-        <v/>
-      </c>
-      <c r="D87" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6">
         <f>IF('[1]243way_Regular Symbol'!W89="","",'[1]243way_Regular Symbol'!W89)</f>
-        <v/>
-      </c>
-      <c r="E87" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="E87" s="6">
         <f>IF('[1]243way_Regular Symbol'!X89="","",'[1]243way_Regular Symbol'!X89)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="6" t="str">
+      <c r="A88" s="6">
         <f>IF('[1]243way_Regular Symbol'!T90="","",'[1]243way_Regular Symbol'!T90)</f>
-        <v/>
-      </c>
-      <c r="B88" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="B88" s="6">
         <f>IF('[1]243way_Regular Symbol'!U90="","",'[1]243way_Regular Symbol'!U90)</f>
-        <v/>
-      </c>
-      <c r="C88" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C88" s="6">
         <f>IF('[1]243way_Regular Symbol'!V90="","",'[1]243way_Regular Symbol'!V90)</f>
-        <v/>
-      </c>
-      <c r="D88" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D88" s="6">
         <f>IF('[1]243way_Regular Symbol'!W90="","",'[1]243way_Regular Symbol'!W90)</f>
-        <v/>
-      </c>
-      <c r="E88" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E88" s="6">
         <f>IF('[1]243way_Regular Symbol'!X90="","",'[1]243way_Regular Symbol'!X90)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="6" t="str">
+      <c r="A89" s="6">
         <f>IF('[1]243way_Regular Symbol'!T91="","",'[1]243way_Regular Symbol'!T91)</f>
-        <v/>
-      </c>
-      <c r="B89" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="B89" s="6">
         <f>IF('[1]243way_Regular Symbol'!U91="","",'[1]243way_Regular Symbol'!U91)</f>
-        <v/>
-      </c>
-      <c r="C89" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C89" s="6">
         <f>IF('[1]243way_Regular Symbol'!V91="","",'[1]243way_Regular Symbol'!V91)</f>
-        <v/>
-      </c>
-      <c r="D89" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D89" s="6">
         <f>IF('[1]243way_Regular Symbol'!W91="","",'[1]243way_Regular Symbol'!W91)</f>
-        <v/>
-      </c>
-      <c r="E89" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="E89" s="6">
         <f>IF('[1]243way_Regular Symbol'!X91="","",'[1]243way_Regular Symbol'!X91)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="6" t="str">
+      <c r="A90" s="6">
         <f>IF('[1]243way_Regular Symbol'!T92="","",'[1]243way_Regular Symbol'!T92)</f>
-        <v/>
-      </c>
-      <c r="B90" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="B90" s="6">
         <f>IF('[1]243way_Regular Symbol'!U92="","",'[1]243way_Regular Symbol'!U92)</f>
-        <v/>
-      </c>
-      <c r="C90" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="C90" s="6">
         <f>IF('[1]243way_Regular Symbol'!V92="","",'[1]243way_Regular Symbol'!V92)</f>
-        <v/>
-      </c>
-      <c r="D90" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="D90" s="6">
         <f>IF('[1]243way_Regular Symbol'!W92="","",'[1]243way_Regular Symbol'!W92)</f>
-        <v/>
-      </c>
-      <c r="E90" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E90" s="6">
         <f>IF('[1]243way_Regular Symbol'!X92="","",'[1]243way_Regular Symbol'!X92)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="6" t="str">
+      <c r="A91" s="6">
         <f>IF('[1]243way_Regular Symbol'!T93="","",'[1]243way_Regular Symbol'!T93)</f>
-        <v/>
-      </c>
-      <c r="B91" s="6" t="str">
+        <v>13</v>
+      </c>
+      <c r="B91" s="6">
         <f>IF('[1]243way_Regular Symbol'!U93="","",'[1]243way_Regular Symbol'!U93)</f>
-        <v/>
-      </c>
-      <c r="C91" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="C91" s="6">
         <f>IF('[1]243way_Regular Symbol'!V93="","",'[1]243way_Regular Symbol'!V93)</f>
-        <v/>
-      </c>
-      <c r="D91" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="D91" s="6">
         <f>IF('[1]243way_Regular Symbol'!W93="","",'[1]243way_Regular Symbol'!W93)</f>
-        <v/>
-      </c>
-      <c r="E91" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E91" s="6">
         <f>IF('[1]243way_Regular Symbol'!X93="","",'[1]243way_Regular Symbol'!X93)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="6" t="str">
+      <c r="A92" s="6">
         <f>IF('[1]243way_Regular Symbol'!T94="","",'[1]243way_Regular Symbol'!T94)</f>
-        <v/>
-      </c>
-      <c r="B92" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="B92" s="6">
         <f>IF('[1]243way_Regular Symbol'!U94="","",'[1]243way_Regular Symbol'!U94)</f>
-        <v/>
-      </c>
-      <c r="C92" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6">
         <f>IF('[1]243way_Regular Symbol'!V94="","",'[1]243way_Regular Symbol'!V94)</f>
-        <v/>
-      </c>
-      <c r="D92" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D92" s="6">
         <f>IF('[1]243way_Regular Symbol'!W94="","",'[1]243way_Regular Symbol'!W94)</f>
-        <v/>
-      </c>
-      <c r="E92" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="E92" s="6">
         <f>IF('[1]243way_Regular Symbol'!X94="","",'[1]243way_Regular Symbol'!X94)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="6" t="str">
+      <c r="A93" s="6">
         <f>IF('[1]243way_Regular Symbol'!T95="","",'[1]243way_Regular Symbol'!T95)</f>
-        <v/>
-      </c>
-      <c r="B93" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="B93" s="6">
         <f>IF('[1]243way_Regular Symbol'!U95="","",'[1]243way_Regular Symbol'!U95)</f>
-        <v/>
-      </c>
-      <c r="C93" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C93" s="6">
         <f>IF('[1]243way_Regular Symbol'!V95="","",'[1]243way_Regular Symbol'!V95)</f>
-        <v/>
-      </c>
-      <c r="D93" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D93" s="6">
         <f>IF('[1]243way_Regular Symbol'!W95="","",'[1]243way_Regular Symbol'!W95)</f>
-        <v/>
-      </c>
-      <c r="E93" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6">
         <f>IF('[1]243way_Regular Symbol'!X95="","",'[1]243way_Regular Symbol'!X95)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="6" t="str">
+      <c r="A94" s="6">
         <f>IF('[1]243way_Regular Symbol'!T96="","",'[1]243way_Regular Symbol'!T96)</f>
-        <v/>
-      </c>
-      <c r="B94" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="B94" s="6">
         <f>IF('[1]243way_Regular Symbol'!U96="","",'[1]243way_Regular Symbol'!U96)</f>
-        <v/>
-      </c>
-      <c r="C94" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="C94" s="6">
         <f>IF('[1]243way_Regular Symbol'!V96="","",'[1]243way_Regular Symbol'!V96)</f>
-        <v/>
-      </c>
-      <c r="D94" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D94" s="6">
         <f>IF('[1]243way_Regular Symbol'!W96="","",'[1]243way_Regular Symbol'!W96)</f>
-        <v/>
-      </c>
-      <c r="E94" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="E94" s="6">
         <f>IF('[1]243way_Regular Symbol'!X96="","",'[1]243way_Regular Symbol'!X96)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="6" t="str">
+      <c r="A95" s="6">
         <f>IF('[1]243way_Regular Symbol'!T97="","",'[1]243way_Regular Symbol'!T97)</f>
-        <v/>
-      </c>
-      <c r="B95" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="B95" s="6">
         <f>IF('[1]243way_Regular Symbol'!U97="","",'[1]243way_Regular Symbol'!U97)</f>
-        <v/>
-      </c>
-      <c r="C95" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C95" s="6">
         <f>IF('[1]243way_Regular Symbol'!V97="","",'[1]243way_Regular Symbol'!V97)</f>
-        <v/>
-      </c>
-      <c r="D95" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D95" s="6">
         <f>IF('[1]243way_Regular Symbol'!W97="","",'[1]243way_Regular Symbol'!W97)</f>
-        <v/>
-      </c>
-      <c r="E95" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="E95" s="6">
         <f>IF('[1]243way_Regular Symbol'!X97="","",'[1]243way_Regular Symbol'!X97)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="6" t="str">
+      <c r="A96" s="6">
         <f>IF('[1]243way_Regular Symbol'!T98="","",'[1]243way_Regular Symbol'!T98)</f>
-        <v/>
-      </c>
-      <c r="B96" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="B96" s="6">
         <f>IF('[1]243way_Regular Symbol'!U98="","",'[1]243way_Regular Symbol'!U98)</f>
-        <v/>
-      </c>
-      <c r="C96" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C96" s="6">
         <f>IF('[1]243way_Regular Symbol'!V98="","",'[1]243way_Regular Symbol'!V98)</f>
-        <v/>
-      </c>
-      <c r="D96" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D96" s="6">
         <f>IF('[1]243way_Regular Symbol'!W98="","",'[1]243way_Regular Symbol'!W98)</f>
-        <v/>
-      </c>
-      <c r="E96" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E96" s="6">
         <f>IF('[1]243way_Regular Symbol'!X98="","",'[1]243way_Regular Symbol'!X98)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="6" t="str">
+      <c r="A97" s="6">
         <f>IF('[1]243way_Regular Symbol'!T99="","",'[1]243way_Regular Symbol'!T99)</f>
-        <v/>
-      </c>
-      <c r="B97" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="B97" s="6">
         <f>IF('[1]243way_Regular Symbol'!U99="","",'[1]243way_Regular Symbol'!U99)</f>
-        <v/>
-      </c>
-      <c r="C97" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="C97" s="6">
         <f>IF('[1]243way_Regular Symbol'!V99="","",'[1]243way_Regular Symbol'!V99)</f>
-        <v/>
-      </c>
-      <c r="D97" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D97" s="6">
         <f>IF('[1]243way_Regular Symbol'!W99="","",'[1]243way_Regular Symbol'!W99)</f>
-        <v/>
-      </c>
-      <c r="E97" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E97" s="6">
         <f>IF('[1]243way_Regular Symbol'!X99="","",'[1]243way_Regular Symbol'!X99)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="6" t="str">
+      <c r="A98" s="6">
         <f>IF('[1]243way_Regular Symbol'!T100="","",'[1]243way_Regular Symbol'!T100)</f>
-        <v/>
-      </c>
-      <c r="B98" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="B98" s="6">
         <f>IF('[1]243way_Regular Symbol'!U100="","",'[1]243way_Regular Symbol'!U100)</f>
-        <v/>
-      </c>
-      <c r="C98" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="C98" s="6">
         <f>IF('[1]243way_Regular Symbol'!V100="","",'[1]243way_Regular Symbol'!V100)</f>
-        <v/>
-      </c>
-      <c r="D98" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D98" s="6">
         <f>IF('[1]243way_Regular Symbol'!W100="","",'[1]243way_Regular Symbol'!W100)</f>
-        <v/>
-      </c>
-      <c r="E98" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E98" s="6">
         <f>IF('[1]243way_Regular Symbol'!X100="","",'[1]243way_Regular Symbol'!X100)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="6" t="str">
+      <c r="A99" s="6">
         <f>IF('[1]243way_Regular Symbol'!T101="","",'[1]243way_Regular Symbol'!T101)</f>
-        <v/>
-      </c>
-      <c r="B99" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="B99" s="6">
         <f>IF('[1]243way_Regular Symbol'!U101="","",'[1]243way_Regular Symbol'!U101)</f>
-        <v/>
-      </c>
-      <c r="C99" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="C99" s="6">
         <f>IF('[1]243way_Regular Symbol'!V101="","",'[1]243way_Regular Symbol'!V101)</f>
-        <v/>
-      </c>
-      <c r="D99" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D99" s="6">
         <f>IF('[1]243way_Regular Symbol'!W101="","",'[1]243way_Regular Symbol'!W101)</f>
-        <v/>
-      </c>
-      <c r="E99" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="E99" s="6">
         <f>IF('[1]243way_Regular Symbol'!X101="","",'[1]243way_Regular Symbol'!X101)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="6" t="str">
+      <c r="A100" s="6">
         <f>IF('[1]243way_Regular Symbol'!T102="","",'[1]243way_Regular Symbol'!T102)</f>
-        <v/>
-      </c>
-      <c r="B100" s="6" t="str">
+        <v>13</v>
+      </c>
+      <c r="B100" s="6">
         <f>IF('[1]243way_Regular Symbol'!U102="","",'[1]243way_Regular Symbol'!U102)</f>
-        <v/>
-      </c>
-      <c r="C100" s="6" t="str">
+        <v>13</v>
+      </c>
+      <c r="C100" s="6">
         <f>IF('[1]243way_Regular Symbol'!V102="","",'[1]243way_Regular Symbol'!V102)</f>
-        <v/>
-      </c>
-      <c r="D100" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D100" s="6">
         <f>IF('[1]243way_Regular Symbol'!W102="","",'[1]243way_Regular Symbol'!W102)</f>
-        <v/>
-      </c>
-      <c r="E100" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="E100" s="6">
         <f>IF('[1]243way_Regular Symbol'!X102="","",'[1]243way_Regular Symbol'!X102)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="6" t="str">
+      <c r="A101" s="6">
         <f>IF('[1]243way_Regular Symbol'!T103="","",'[1]243way_Regular Symbol'!T103)</f>
-        <v/>
-      </c>
-      <c r="B101" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="B101" s="6">
         <f>IF('[1]243way_Regular Symbol'!U103="","",'[1]243way_Regular Symbol'!U103)</f>
-        <v/>
-      </c>
-      <c r="C101" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="C101" s="6">
         <f>IF('[1]243way_Regular Symbol'!V103="","",'[1]243way_Regular Symbol'!V103)</f>
-        <v/>
-      </c>
-      <c r="D101" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D101" s="6">
         <f>IF('[1]243way_Regular Symbol'!W103="","",'[1]243way_Regular Symbol'!W103)</f>
-        <v/>
-      </c>
-      <c r="E101" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E101" s="6">
         <f>IF('[1]243way_Regular Symbol'!X103="","",'[1]243way_Regular Symbol'!X103)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="6" t="str">
+      <c r="A102" s="6">
         <f>IF('[1]243way_Regular Symbol'!T104="","",'[1]243way_Regular Symbol'!T104)</f>
-        <v/>
-      </c>
-      <c r="B102" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="B102" s="6">
         <f>IF('[1]243way_Regular Symbol'!U104="","",'[1]243way_Regular Symbol'!U104)</f>
-        <v/>
-      </c>
-      <c r="C102" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="C102" s="6">
         <f>IF('[1]243way_Regular Symbol'!V104="","",'[1]243way_Regular Symbol'!V104)</f>
-        <v/>
-      </c>
-      <c r="D102" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D102" s="6">
         <f>IF('[1]243way_Regular Symbol'!W104="","",'[1]243way_Regular Symbol'!W104)</f>
-        <v/>
-      </c>
-      <c r="E102" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E102" s="6">
         <f>IF('[1]243way_Regular Symbol'!X104="","",'[1]243way_Regular Symbol'!X104)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4379,21 +5675,21 @@
         <f>IF('[1]243way_Regular Symbol'!T105="","",'[1]243way_Regular Symbol'!T105)</f>
         <v/>
       </c>
-      <c r="B103" s="6" t="str">
+      <c r="B103" s="6">
         <f>IF('[1]243way_Regular Symbol'!U105="","",'[1]243way_Regular Symbol'!U105)</f>
-        <v/>
-      </c>
-      <c r="C103" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="C103" s="6">
         <f>IF('[1]243way_Regular Symbol'!V105="","",'[1]243way_Regular Symbol'!V105)</f>
-        <v/>
-      </c>
-      <c r="D103" s="6" t="str">
+        <v>12</v>
+      </c>
+      <c r="D103" s="6">
         <f>IF('[1]243way_Regular Symbol'!W105="","",'[1]243way_Regular Symbol'!W105)</f>
-        <v/>
-      </c>
-      <c r="E103" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E103" s="6">
         <f>IF('[1]243way_Regular Symbol'!X105="","",'[1]243way_Regular Symbol'!X105)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4401,21 +5697,21 @@
         <f>IF('[1]243way_Regular Symbol'!T106="","",'[1]243way_Regular Symbol'!T106)</f>
         <v/>
       </c>
-      <c r="B104" s="6" t="str">
+      <c r="B104" s="6">
         <f>IF('[1]243way_Regular Symbol'!U106="","",'[1]243way_Regular Symbol'!U106)</f>
-        <v/>
-      </c>
-      <c r="C104" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6">
         <f>IF('[1]243way_Regular Symbol'!V106="","",'[1]243way_Regular Symbol'!V106)</f>
-        <v/>
-      </c>
-      <c r="D104" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D104" s="6">
         <f>IF('[1]243way_Regular Symbol'!W106="","",'[1]243way_Regular Symbol'!W106)</f>
-        <v/>
-      </c>
-      <c r="E104" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E104" s="6">
         <f>IF('[1]243way_Regular Symbol'!X106="","",'[1]243way_Regular Symbol'!X106)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4423,21 +5719,21 @@
         <f>IF('[1]243way_Regular Symbol'!T107="","",'[1]243way_Regular Symbol'!T107)</f>
         <v/>
       </c>
-      <c r="B105" s="6" t="str">
+      <c r="B105" s="6">
         <f>IF('[1]243way_Regular Symbol'!U107="","",'[1]243way_Regular Symbol'!U107)</f>
-        <v/>
-      </c>
-      <c r="C105" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6">
         <f>IF('[1]243way_Regular Symbol'!V107="","",'[1]243way_Regular Symbol'!V107)</f>
-        <v/>
-      </c>
-      <c r="D105" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D105" s="6">
         <f>IF('[1]243way_Regular Symbol'!W107="","",'[1]243way_Regular Symbol'!W107)</f>
-        <v/>
-      </c>
-      <c r="E105" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="E105" s="6">
         <f>IF('[1]243way_Regular Symbol'!X107="","",'[1]243way_Regular Symbol'!X107)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4445,21 +5741,21 @@
         <f>IF('[1]243way_Regular Symbol'!T108="","",'[1]243way_Regular Symbol'!T108)</f>
         <v/>
       </c>
-      <c r="B106" s="6" t="str">
+      <c r="B106" s="6">
         <f>IF('[1]243way_Regular Symbol'!U108="","",'[1]243way_Regular Symbol'!U108)</f>
-        <v/>
-      </c>
-      <c r="C106" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="C106" s="6">
         <f>IF('[1]243way_Regular Symbol'!V108="","",'[1]243way_Regular Symbol'!V108)</f>
-        <v/>
-      </c>
-      <c r="D106" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D106" s="6">
         <f>IF('[1]243way_Regular Symbol'!W108="","",'[1]243way_Regular Symbol'!W108)</f>
-        <v/>
-      </c>
-      <c r="E106" s="6" t="str">
+        <v>12</v>
+      </c>
+      <c r="E106" s="6">
         <f>IF('[1]243way_Regular Symbol'!X108="","",'[1]243way_Regular Symbol'!X108)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4467,21 +5763,21 @@
         <f>IF('[1]243way_Regular Symbol'!T109="","",'[1]243way_Regular Symbol'!T109)</f>
         <v/>
       </c>
-      <c r="B107" s="6" t="str">
+      <c r="B107" s="6">
         <f>IF('[1]243way_Regular Symbol'!U109="","",'[1]243way_Regular Symbol'!U109)</f>
-        <v/>
-      </c>
-      <c r="C107" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="C107" s="6">
         <f>IF('[1]243way_Regular Symbol'!V109="","",'[1]243way_Regular Symbol'!V109)</f>
-        <v/>
-      </c>
-      <c r="D107" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D107" s="6">
         <f>IF('[1]243way_Regular Symbol'!W109="","",'[1]243way_Regular Symbol'!W109)</f>
-        <v/>
-      </c>
-      <c r="E107" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E107" s="6">
         <f>IF('[1]243way_Regular Symbol'!X109="","",'[1]243way_Regular Symbol'!X109)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4493,17 +5789,17 @@
         <f>IF('[1]243way_Regular Symbol'!U110="","",'[1]243way_Regular Symbol'!U110)</f>
         <v/>
       </c>
-      <c r="C108" s="6" t="str">
+      <c r="C108" s="6">
         <f>IF('[1]243way_Regular Symbol'!V110="","",'[1]243way_Regular Symbol'!V110)</f>
-        <v/>
-      </c>
-      <c r="D108" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D108" s="6">
         <f>IF('[1]243way_Regular Symbol'!W110="","",'[1]243way_Regular Symbol'!W110)</f>
-        <v/>
-      </c>
-      <c r="E108" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E108" s="6">
         <f>IF('[1]243way_Regular Symbol'!X110="","",'[1]243way_Regular Symbol'!X110)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4515,17 +5811,17 @@
         <f>IF('[1]243way_Regular Symbol'!U111="","",'[1]243way_Regular Symbol'!U111)</f>
         <v/>
       </c>
-      <c r="C109" s="6" t="str">
+      <c r="C109" s="6">
         <f>IF('[1]243way_Regular Symbol'!V111="","",'[1]243way_Regular Symbol'!V111)</f>
-        <v/>
-      </c>
-      <c r="D109" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D109" s="6">
         <f>IF('[1]243way_Regular Symbol'!W111="","",'[1]243way_Regular Symbol'!W111)</f>
-        <v/>
-      </c>
-      <c r="E109" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="E109" s="6">
         <f>IF('[1]243way_Regular Symbol'!X111="","",'[1]243way_Regular Symbol'!X111)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4537,17 +5833,17 @@
         <f>IF('[1]243way_Regular Symbol'!U112="","",'[1]243way_Regular Symbol'!U112)</f>
         <v/>
       </c>
-      <c r="C110" s="6" t="str">
+      <c r="C110" s="6">
         <f>IF('[1]243way_Regular Symbol'!V112="","",'[1]243way_Regular Symbol'!V112)</f>
-        <v/>
-      </c>
-      <c r="D110" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D110" s="6">
         <f>IF('[1]243way_Regular Symbol'!W112="","",'[1]243way_Regular Symbol'!W112)</f>
-        <v/>
-      </c>
-      <c r="E110" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E110" s="6">
         <f>IF('[1]243way_Regular Symbol'!X112="","",'[1]243way_Regular Symbol'!X112)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4559,17 +5855,17 @@
         <f>IF('[1]243way_Regular Symbol'!U113="","",'[1]243way_Regular Symbol'!U113)</f>
         <v/>
       </c>
-      <c r="C111" s="6" t="str">
+      <c r="C111" s="6">
         <f>IF('[1]243way_Regular Symbol'!V113="","",'[1]243way_Regular Symbol'!V113)</f>
-        <v/>
-      </c>
-      <c r="D111" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D111" s="6">
         <f>IF('[1]243way_Regular Symbol'!W113="","",'[1]243way_Regular Symbol'!W113)</f>
-        <v/>
-      </c>
-      <c r="E111" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E111" s="6">
         <f>IF('[1]243way_Regular Symbol'!X113="","",'[1]243way_Regular Symbol'!X113)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4581,17 +5877,17 @@
         <f>IF('[1]243way_Regular Symbol'!U114="","",'[1]243way_Regular Symbol'!U114)</f>
         <v/>
       </c>
-      <c r="C112" s="6" t="str">
+      <c r="C112" s="6">
         <f>IF('[1]243way_Regular Symbol'!V114="","",'[1]243way_Regular Symbol'!V114)</f>
-        <v/>
-      </c>
-      <c r="D112" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D112" s="6">
         <f>IF('[1]243way_Regular Symbol'!W114="","",'[1]243way_Regular Symbol'!W114)</f>
-        <v/>
-      </c>
-      <c r="E112" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E112" s="6">
         <f>IF('[1]243way_Regular Symbol'!X114="","",'[1]243way_Regular Symbol'!X114)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4603,17 +5899,17 @@
         <f>IF('[1]243way_Regular Symbol'!U115="","",'[1]243way_Regular Symbol'!U115)</f>
         <v/>
       </c>
-      <c r="C113" s="6" t="str">
+      <c r="C113" s="6">
         <f>IF('[1]243way_Regular Symbol'!V115="","",'[1]243way_Regular Symbol'!V115)</f>
-        <v/>
-      </c>
-      <c r="D113" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D113" s="6">
         <f>IF('[1]243way_Regular Symbol'!W115="","",'[1]243way_Regular Symbol'!W115)</f>
-        <v/>
-      </c>
-      <c r="E113" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E113" s="6">
         <f>IF('[1]243way_Regular Symbol'!X115="","",'[1]243way_Regular Symbol'!X115)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4625,17 +5921,17 @@
         <f>IF('[1]243way_Regular Symbol'!U116="","",'[1]243way_Regular Symbol'!U116)</f>
         <v/>
       </c>
-      <c r="C114" s="6" t="str">
+      <c r="C114" s="6">
         <f>IF('[1]243way_Regular Symbol'!V116="","",'[1]243way_Regular Symbol'!V116)</f>
-        <v/>
-      </c>
-      <c r="D114" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="D114" s="6">
         <f>IF('[1]243way_Regular Symbol'!W116="","",'[1]243way_Regular Symbol'!W116)</f>
-        <v/>
-      </c>
-      <c r="E114" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E114" s="6">
         <f>IF('[1]243way_Regular Symbol'!X116="","",'[1]243way_Regular Symbol'!X116)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4647,17 +5943,17 @@
         <f>IF('[1]243way_Regular Symbol'!U117="","",'[1]243way_Regular Symbol'!U117)</f>
         <v/>
       </c>
-      <c r="C115" s="6" t="str">
+      <c r="C115" s="6">
         <f>IF('[1]243way_Regular Symbol'!V117="","",'[1]243way_Regular Symbol'!V117)</f>
-        <v/>
-      </c>
-      <c r="D115" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="D115" s="6">
         <f>IF('[1]243way_Regular Symbol'!W117="","",'[1]243way_Regular Symbol'!W117)</f>
-        <v/>
-      </c>
-      <c r="E115" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="E115" s="6">
         <f>IF('[1]243way_Regular Symbol'!X117="","",'[1]243way_Regular Symbol'!X117)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4669,17 +5965,17 @@
         <f>IF('[1]243way_Regular Symbol'!U118="","",'[1]243way_Regular Symbol'!U118)</f>
         <v/>
       </c>
-      <c r="C116" s="6" t="str">
+      <c r="C116" s="6">
         <f>IF('[1]243way_Regular Symbol'!V118="","",'[1]243way_Regular Symbol'!V118)</f>
-        <v/>
-      </c>
-      <c r="D116" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D116" s="6">
         <f>IF('[1]243way_Regular Symbol'!W118="","",'[1]243way_Regular Symbol'!W118)</f>
-        <v/>
-      </c>
-      <c r="E116" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E116" s="6">
         <f>IF('[1]243way_Regular Symbol'!X118="","",'[1]243way_Regular Symbol'!X118)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4691,17 +5987,17 @@
         <f>IF('[1]243way_Regular Symbol'!U119="","",'[1]243way_Regular Symbol'!U119)</f>
         <v/>
       </c>
-      <c r="C117" s="6" t="str">
+      <c r="C117" s="6">
         <f>IF('[1]243way_Regular Symbol'!V119="","",'[1]243way_Regular Symbol'!V119)</f>
-        <v/>
-      </c>
-      <c r="D117" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D117" s="6">
         <f>IF('[1]243way_Regular Symbol'!W119="","",'[1]243way_Regular Symbol'!W119)</f>
-        <v/>
-      </c>
-      <c r="E117" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E117" s="6">
         <f>IF('[1]243way_Regular Symbol'!X119="","",'[1]243way_Regular Symbol'!X119)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4713,17 +6009,17 @@
         <f>IF('[1]243way_Regular Symbol'!U120="","",'[1]243way_Regular Symbol'!U120)</f>
         <v/>
       </c>
-      <c r="C118" s="6" t="str">
+      <c r="C118" s="6">
         <f>IF('[1]243way_Regular Symbol'!V120="","",'[1]243way_Regular Symbol'!V120)</f>
-        <v/>
-      </c>
-      <c r="D118" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D118" s="6">
         <f>IF('[1]243way_Regular Symbol'!W120="","",'[1]243way_Regular Symbol'!W120)</f>
-        <v/>
-      </c>
-      <c r="E118" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E118" s="6">
         <f>IF('[1]243way_Regular Symbol'!X120="","",'[1]243way_Regular Symbol'!X120)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4735,17 +6031,17 @@
         <f>IF('[1]243way_Regular Symbol'!U121="","",'[1]243way_Regular Symbol'!U121)</f>
         <v/>
       </c>
-      <c r="C119" s="6" t="str">
+      <c r="C119" s="6">
         <f>IF('[1]243way_Regular Symbol'!V121="","",'[1]243way_Regular Symbol'!V121)</f>
-        <v/>
-      </c>
-      <c r="D119" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="D119" s="6">
         <f>IF('[1]243way_Regular Symbol'!W121="","",'[1]243way_Regular Symbol'!W121)</f>
-        <v/>
-      </c>
-      <c r="E119" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E119" s="6">
         <f>IF('[1]243way_Regular Symbol'!X121="","",'[1]243way_Regular Symbol'!X121)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4757,17 +6053,17 @@
         <f>IF('[1]243way_Regular Symbol'!U122="","",'[1]243way_Regular Symbol'!U122)</f>
         <v/>
       </c>
-      <c r="C120" s="6" t="str">
+      <c r="C120" s="6">
         <f>IF('[1]243way_Regular Symbol'!V122="","",'[1]243way_Regular Symbol'!V122)</f>
-        <v/>
-      </c>
-      <c r="D120" s="6" t="str">
+        <v>12</v>
+      </c>
+      <c r="D120" s="6">
         <f>IF('[1]243way_Regular Symbol'!W122="","",'[1]243way_Regular Symbol'!W122)</f>
-        <v/>
-      </c>
-      <c r="E120" s="6" t="str">
+        <v>12</v>
+      </c>
+      <c r="E120" s="6">
         <f>IF('[1]243way_Regular Symbol'!X122="","",'[1]243way_Regular Symbol'!X122)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4779,17 +6075,17 @@
         <f>IF('[1]243way_Regular Symbol'!U123="","",'[1]243way_Regular Symbol'!U123)</f>
         <v/>
       </c>
-      <c r="C121" s="6" t="str">
+      <c r="C121" s="6">
         <f>IF('[1]243way_Regular Symbol'!V123="","",'[1]243way_Regular Symbol'!V123)</f>
-        <v/>
-      </c>
-      <c r="D121" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D121" s="6">
         <f>IF('[1]243way_Regular Symbol'!W123="","",'[1]243way_Regular Symbol'!W123)</f>
-        <v/>
-      </c>
-      <c r="E121" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E121" s="6">
         <f>IF('[1]243way_Regular Symbol'!X123="","",'[1]243way_Regular Symbol'!X123)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4801,17 +6097,17 @@
         <f>IF('[1]243way_Regular Symbol'!U124="","",'[1]243way_Regular Symbol'!U124)</f>
         <v/>
       </c>
-      <c r="C122" s="6" t="str">
+      <c r="C122" s="6">
         <f>IF('[1]243way_Regular Symbol'!V124="","",'[1]243way_Regular Symbol'!V124)</f>
-        <v/>
-      </c>
-      <c r="D122" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D122" s="6">
         <f>IF('[1]243way_Regular Symbol'!W124="","",'[1]243way_Regular Symbol'!W124)</f>
-        <v/>
-      </c>
-      <c r="E122" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="E122" s="6">
         <f>IF('[1]243way_Regular Symbol'!X124="","",'[1]243way_Regular Symbol'!X124)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4823,17 +6119,17 @@
         <f>IF('[1]243way_Regular Symbol'!U125="","",'[1]243way_Regular Symbol'!U125)</f>
         <v/>
       </c>
-      <c r="C123" s="6" t="str">
+      <c r="C123" s="6">
         <f>IF('[1]243way_Regular Symbol'!V125="","",'[1]243way_Regular Symbol'!V125)</f>
-        <v/>
-      </c>
-      <c r="D123" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D123" s="6">
         <f>IF('[1]243way_Regular Symbol'!W125="","",'[1]243way_Regular Symbol'!W125)</f>
-        <v/>
-      </c>
-      <c r="E123" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="E123" s="6">
         <f>IF('[1]243way_Regular Symbol'!X125="","",'[1]243way_Regular Symbol'!X125)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4845,17 +6141,17 @@
         <f>IF('[1]243way_Regular Symbol'!U126="","",'[1]243way_Regular Symbol'!U126)</f>
         <v/>
       </c>
-      <c r="C124" s="6" t="str">
+      <c r="C124" s="6">
         <f>IF('[1]243way_Regular Symbol'!V126="","",'[1]243way_Regular Symbol'!V126)</f>
-        <v/>
-      </c>
-      <c r="D124" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="D124" s="6">
         <f>IF('[1]243way_Regular Symbol'!W126="","",'[1]243way_Regular Symbol'!W126)</f>
-        <v/>
-      </c>
-      <c r="E124" s="6" t="str">
+        <v>9</v>
+      </c>
+      <c r="E124" s="6">
         <f>IF('[1]243way_Regular Symbol'!X126="","",'[1]243way_Regular Symbol'!X126)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4867,17 +6163,17 @@
         <f>IF('[1]243way_Regular Symbol'!U127="","",'[1]243way_Regular Symbol'!U127)</f>
         <v/>
       </c>
-      <c r="C125" s="6" t="str">
+      <c r="C125" s="6">
         <f>IF('[1]243way_Regular Symbol'!V127="","",'[1]243way_Regular Symbol'!V127)</f>
-        <v/>
-      </c>
-      <c r="D125" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D125" s="6">
         <f>IF('[1]243way_Regular Symbol'!W127="","",'[1]243way_Regular Symbol'!W127)</f>
-        <v/>
-      </c>
-      <c r="E125" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E125" s="6">
         <f>IF('[1]243way_Regular Symbol'!X127="","",'[1]243way_Regular Symbol'!X127)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4889,17 +6185,17 @@
         <f>IF('[1]243way_Regular Symbol'!U128="","",'[1]243way_Regular Symbol'!U128)</f>
         <v/>
       </c>
-      <c r="C126" s="6" t="str">
+      <c r="C126" s="6">
         <f>IF('[1]243way_Regular Symbol'!V128="","",'[1]243way_Regular Symbol'!V128)</f>
-        <v/>
-      </c>
-      <c r="D126" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D126" s="6">
         <f>IF('[1]243way_Regular Symbol'!W128="","",'[1]243way_Regular Symbol'!W128)</f>
-        <v/>
-      </c>
-      <c r="E126" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E126" s="6">
         <f>IF('[1]243way_Regular Symbol'!X128="","",'[1]243way_Regular Symbol'!X128)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4911,17 +6207,17 @@
         <f>IF('[1]243way_Regular Symbol'!U129="","",'[1]243way_Regular Symbol'!U129)</f>
         <v/>
       </c>
-      <c r="C127" s="6" t="str">
+      <c r="C127" s="6">
         <f>IF('[1]243way_Regular Symbol'!V129="","",'[1]243way_Regular Symbol'!V129)</f>
-        <v/>
-      </c>
-      <c r="D127" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D127" s="6">
         <f>IF('[1]243way_Regular Symbol'!W129="","",'[1]243way_Regular Symbol'!W129)</f>
-        <v/>
-      </c>
-      <c r="E127" s="6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E127" s="6">
         <f>IF('[1]243way_Regular Symbol'!X129="","",'[1]243way_Regular Symbol'!X129)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4933,17 +6229,17 @@
         <f>IF('[1]243way_Regular Symbol'!U130="","",'[1]243way_Regular Symbol'!U130)</f>
         <v/>
       </c>
-      <c r="C128" s="6" t="str">
+      <c r="C128" s="6">
         <f>IF('[1]243way_Regular Symbol'!V130="","",'[1]243way_Regular Symbol'!V130)</f>
-        <v/>
-      </c>
-      <c r="D128" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D128" s="6">
         <f>IF('[1]243way_Regular Symbol'!W130="","",'[1]243way_Regular Symbol'!W130)</f>
-        <v/>
-      </c>
-      <c r="E128" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E128" s="6">
         <f>IF('[1]243way_Regular Symbol'!X130="","",'[1]243way_Regular Symbol'!X130)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4955,17 +6251,17 @@
         <f>IF('[1]243way_Regular Symbol'!U131="","",'[1]243way_Regular Symbol'!U131)</f>
         <v/>
       </c>
-      <c r="C129" s="6" t="str">
+      <c r="C129" s="6">
         <f>IF('[1]243way_Regular Symbol'!V131="","",'[1]243way_Regular Symbol'!V131)</f>
-        <v/>
-      </c>
-      <c r="D129" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D129" s="6">
         <f>IF('[1]243way_Regular Symbol'!W131="","",'[1]243way_Regular Symbol'!W131)</f>
-        <v/>
-      </c>
-      <c r="E129" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E129" s="6">
         <f>IF('[1]243way_Regular Symbol'!X131="","",'[1]243way_Regular Symbol'!X131)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4977,17 +6273,17 @@
         <f>IF('[1]243way_Regular Symbol'!U132="","",'[1]243way_Regular Symbol'!U132)</f>
         <v/>
       </c>
-      <c r="C130" s="6" t="str">
+      <c r="C130" s="6">
         <f>IF('[1]243way_Regular Symbol'!V132="","",'[1]243way_Regular Symbol'!V132)</f>
-        <v/>
-      </c>
-      <c r="D130" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D130" s="6">
         <f>IF('[1]243way_Regular Symbol'!W132="","",'[1]243way_Regular Symbol'!W132)</f>
-        <v/>
-      </c>
-      <c r="E130" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="E130" s="6">
         <f>IF('[1]243way_Regular Symbol'!X132="","",'[1]243way_Regular Symbol'!X132)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4999,17 +6295,17 @@
         <f>IF('[1]243way_Regular Symbol'!U133="","",'[1]243way_Regular Symbol'!U133)</f>
         <v/>
       </c>
-      <c r="C131" s="6" t="str">
+      <c r="C131" s="6">
         <f>IF('[1]243way_Regular Symbol'!V133="","",'[1]243way_Regular Symbol'!V133)</f>
-        <v/>
-      </c>
-      <c r="D131" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D131" s="6">
         <f>IF('[1]243way_Regular Symbol'!W133="","",'[1]243way_Regular Symbol'!W133)</f>
-        <v/>
-      </c>
-      <c r="E131" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E131" s="6">
         <f>IF('[1]243way_Regular Symbol'!X133="","",'[1]243way_Regular Symbol'!X133)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5021,17 +6317,17 @@
         <f>IF('[1]243way_Regular Symbol'!U134="","",'[1]243way_Regular Symbol'!U134)</f>
         <v/>
       </c>
-      <c r="C132" s="6" t="str">
+      <c r="C132" s="6">
         <f>IF('[1]243way_Regular Symbol'!V134="","",'[1]243way_Regular Symbol'!V134)</f>
-        <v/>
-      </c>
-      <c r="D132" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D132" s="6">
         <f>IF('[1]243way_Regular Symbol'!W134="","",'[1]243way_Regular Symbol'!W134)</f>
-        <v/>
-      </c>
-      <c r="E132" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E132" s="6">
         <f>IF('[1]243way_Regular Symbol'!X134="","",'[1]243way_Regular Symbol'!X134)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5043,17 +6339,17 @@
         <f>IF('[1]243way_Regular Symbol'!U135="","",'[1]243way_Regular Symbol'!U135)</f>
         <v/>
       </c>
-      <c r="C133" s="6" t="str">
+      <c r="C133" s="6">
         <f>IF('[1]243way_Regular Symbol'!V135="","",'[1]243way_Regular Symbol'!V135)</f>
-        <v/>
-      </c>
-      <c r="D133" s="6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D133" s="6">
         <f>IF('[1]243way_Regular Symbol'!W135="","",'[1]243way_Regular Symbol'!W135)</f>
-        <v/>
-      </c>
-      <c r="E133" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="E133" s="6">
         <f>IF('[1]243way_Regular Symbol'!X135="","",'[1]243way_Regular Symbol'!X135)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5065,13 +6361,13 @@
         <f>IF('[1]243way_Regular Symbol'!U136="","",'[1]243way_Regular Symbol'!U136)</f>
         <v/>
       </c>
-      <c r="C134" s="6" t="str">
+      <c r="C134" s="6">
         <f>IF('[1]243way_Regular Symbol'!V136="","",'[1]243way_Regular Symbol'!V136)</f>
-        <v/>
-      </c>
-      <c r="D134" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="D134" s="6">
         <f>IF('[1]243way_Regular Symbol'!W136="","",'[1]243way_Regular Symbol'!W136)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E134" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X136="","",'[1]243way_Regular Symbol'!X136)</f>
@@ -5087,13 +6383,13 @@
         <f>IF('[1]243way_Regular Symbol'!U137="","",'[1]243way_Regular Symbol'!U137)</f>
         <v/>
       </c>
-      <c r="C135" s="6" t="str">
+      <c r="C135" s="6">
         <f>IF('[1]243way_Regular Symbol'!V137="","",'[1]243way_Regular Symbol'!V137)</f>
-        <v/>
-      </c>
-      <c r="D135" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D135" s="6">
         <f>IF('[1]243way_Regular Symbol'!W137="","",'[1]243way_Regular Symbol'!W137)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E135" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X137="","",'[1]243way_Regular Symbol'!X137)</f>
@@ -5109,13 +6405,13 @@
         <f>IF('[1]243way_Regular Symbol'!U138="","",'[1]243way_Regular Symbol'!U138)</f>
         <v/>
       </c>
-      <c r="C136" s="6" t="str">
+      <c r="C136" s="6">
         <f>IF('[1]243way_Regular Symbol'!V138="","",'[1]243way_Regular Symbol'!V138)</f>
-        <v/>
-      </c>
-      <c r="D136" s="6" t="str">
+        <v>11</v>
+      </c>
+      <c r="D136" s="6">
         <f>IF('[1]243way_Regular Symbol'!W138="","",'[1]243way_Regular Symbol'!W138)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E136" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X138="","",'[1]243way_Regular Symbol'!X138)</f>
@@ -5131,13 +6427,13 @@
         <f>IF('[1]243way_Regular Symbol'!U139="","",'[1]243way_Regular Symbol'!U139)</f>
         <v/>
       </c>
-      <c r="C137" s="6" t="str">
+      <c r="C137" s="6">
         <f>IF('[1]243way_Regular Symbol'!V139="","",'[1]243way_Regular Symbol'!V139)</f>
-        <v/>
-      </c>
-      <c r="D137" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D137" s="6">
         <f>IF('[1]243way_Regular Symbol'!W139="","",'[1]243way_Regular Symbol'!W139)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E137" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X139="","",'[1]243way_Regular Symbol'!X139)</f>
@@ -5153,13 +6449,13 @@
         <f>IF('[1]243way_Regular Symbol'!U140="","",'[1]243way_Regular Symbol'!U140)</f>
         <v/>
       </c>
-      <c r="C138" s="6" t="str">
+      <c r="C138" s="6">
         <f>IF('[1]243way_Regular Symbol'!V140="","",'[1]243way_Regular Symbol'!V140)</f>
-        <v/>
-      </c>
-      <c r="D138" s="6" t="str">
+        <v>10</v>
+      </c>
+      <c r="D138" s="6">
         <f>IF('[1]243way_Regular Symbol'!W140="","",'[1]243way_Regular Symbol'!W140)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E138" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X140="","",'[1]243way_Regular Symbol'!X140)</f>
@@ -5175,13 +6471,13 @@
         <f>IF('[1]243way_Regular Symbol'!U141="","",'[1]243way_Regular Symbol'!U141)</f>
         <v/>
       </c>
-      <c r="C139" s="6" t="str">
+      <c r="C139" s="6">
         <f>IF('[1]243way_Regular Symbol'!V141="","",'[1]243way_Regular Symbol'!V141)</f>
-        <v/>
-      </c>
-      <c r="D139" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D139" s="6">
         <f>IF('[1]243way_Regular Symbol'!W141="","",'[1]243way_Regular Symbol'!W141)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="E139" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X141="","",'[1]243way_Regular Symbol'!X141)</f>
@@ -5197,13 +6493,13 @@
         <f>IF('[1]243way_Regular Symbol'!U142="","",'[1]243way_Regular Symbol'!U142)</f>
         <v/>
       </c>
-      <c r="C140" s="6" t="str">
+      <c r="C140" s="6">
         <f>IF('[1]243way_Regular Symbol'!V142="","",'[1]243way_Regular Symbol'!V142)</f>
-        <v/>
-      </c>
-      <c r="D140" s="6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D140" s="6">
         <f>IF('[1]243way_Regular Symbol'!W142="","",'[1]243way_Regular Symbol'!W142)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="E140" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X142="","",'[1]243way_Regular Symbol'!X142)</f>
@@ -5219,13 +6515,13 @@
         <f>IF('[1]243way_Regular Symbol'!U143="","",'[1]243way_Regular Symbol'!U143)</f>
         <v/>
       </c>
-      <c r="C141" s="6" t="str">
+      <c r="C141" s="6">
         <f>IF('[1]243way_Regular Symbol'!V143="","",'[1]243way_Regular Symbol'!V143)</f>
-        <v/>
-      </c>
-      <c r="D141" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D141" s="6">
         <f>IF('[1]243way_Regular Symbol'!W143="","",'[1]243way_Regular Symbol'!W143)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E141" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X143="","",'[1]243way_Regular Symbol'!X143)</f>
@@ -5241,13 +6537,13 @@
         <f>IF('[1]243way_Regular Symbol'!U144="","",'[1]243way_Regular Symbol'!U144)</f>
         <v/>
       </c>
-      <c r="C142" s="6" t="str">
+      <c r="C142" s="6">
         <f>IF('[1]243way_Regular Symbol'!V144="","",'[1]243way_Regular Symbol'!V144)</f>
-        <v/>
-      </c>
-      <c r="D142" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="D142" s="6">
         <f>IF('[1]243way_Regular Symbol'!W144="","",'[1]243way_Regular Symbol'!W144)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E142" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X144="","",'[1]243way_Regular Symbol'!X144)</f>
@@ -5263,13 +6559,13 @@
         <f>IF('[1]243way_Regular Symbol'!U145="","",'[1]243way_Regular Symbol'!U145)</f>
         <v/>
       </c>
-      <c r="C143" s="6" t="str">
+      <c r="C143" s="6">
         <f>IF('[1]243way_Regular Symbol'!V145="","",'[1]243way_Regular Symbol'!V145)</f>
-        <v/>
-      </c>
-      <c r="D143" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="D143" s="6">
         <f>IF('[1]243way_Regular Symbol'!W145="","",'[1]243way_Regular Symbol'!W145)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E143" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X145="","",'[1]243way_Regular Symbol'!X145)</f>
@@ -5285,13 +6581,13 @@
         <f>IF('[1]243way_Regular Symbol'!U146="","",'[1]243way_Regular Symbol'!U146)</f>
         <v/>
       </c>
-      <c r="C144" s="6" t="str">
+      <c r="C144" s="6">
         <f>IF('[1]243way_Regular Symbol'!V146="","",'[1]243way_Regular Symbol'!V146)</f>
-        <v/>
-      </c>
-      <c r="D144" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="D144" s="6">
         <f>IF('[1]243way_Regular Symbol'!W146="","",'[1]243way_Regular Symbol'!W146)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E144" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X146="","",'[1]243way_Regular Symbol'!X146)</f>
@@ -5307,13 +6603,13 @@
         <f>IF('[1]243way_Regular Symbol'!U147="","",'[1]243way_Regular Symbol'!U147)</f>
         <v/>
       </c>
-      <c r="C145" s="6" t="str">
+      <c r="C145" s="6">
         <f>IF('[1]243way_Regular Symbol'!V147="","",'[1]243way_Regular Symbol'!V147)</f>
-        <v/>
-      </c>
-      <c r="D145" s="6" t="str">
+        <v>4</v>
+      </c>
+      <c r="D145" s="6">
         <f>IF('[1]243way_Regular Symbol'!W147="","",'[1]243way_Regular Symbol'!W147)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E145" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X147="","",'[1]243way_Regular Symbol'!X147)</f>
@@ -5329,13 +6625,13 @@
         <f>IF('[1]243way_Regular Symbol'!U148="","",'[1]243way_Regular Symbol'!U148)</f>
         <v/>
       </c>
-      <c r="C146" s="6" t="str">
+      <c r="C146" s="6">
         <f>IF('[1]243way_Regular Symbol'!V148="","",'[1]243way_Regular Symbol'!V148)</f>
-        <v/>
-      </c>
-      <c r="D146" s="6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D146" s="6">
         <f>IF('[1]243way_Regular Symbol'!W148="","",'[1]243way_Regular Symbol'!W148)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="E146" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!X148="","",'[1]243way_Regular Symbol'!X148)</f>
@@ -5351,9 +6647,9 @@
         <f>IF('[1]243way_Regular Symbol'!U149="","",'[1]243way_Regular Symbol'!U149)</f>
         <v/>
       </c>
-      <c r="C147" s="6" t="str">
+      <c r="C147" s="6">
         <f>IF('[1]243way_Regular Symbol'!V149="","",'[1]243way_Regular Symbol'!V149)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D147" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!W149="","",'[1]243way_Regular Symbol'!W149)</f>
@@ -5373,9 +6669,9 @@
         <f>IF('[1]243way_Regular Symbol'!U150="","",'[1]243way_Regular Symbol'!U150)</f>
         <v/>
       </c>
-      <c r="C148" s="6" t="str">
+      <c r="C148" s="6">
         <f>IF('[1]243way_Regular Symbol'!V150="","",'[1]243way_Regular Symbol'!V150)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D148" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!W150="","",'[1]243way_Regular Symbol'!W150)</f>
@@ -5395,9 +6691,9 @@
         <f>IF('[1]243way_Regular Symbol'!U151="","",'[1]243way_Regular Symbol'!U151)</f>
         <v/>
       </c>
-      <c r="C149" s="6" t="str">
+      <c r="C149" s="6">
         <f>IF('[1]243way_Regular Symbol'!V151="","",'[1]243way_Regular Symbol'!V151)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D149" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!W151="","",'[1]243way_Regular Symbol'!W151)</f>
@@ -5417,9 +6713,9 @@
         <f>IF('[1]243way_Regular Symbol'!U152="","",'[1]243way_Regular Symbol'!U152)</f>
         <v/>
       </c>
-      <c r="C150" s="6" t="str">
+      <c r="C150" s="6">
         <f>IF('[1]243way_Regular Symbol'!V152="","",'[1]243way_Regular Symbol'!V152)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D150" s="6" t="str">
         <f>IF('[1]243way_Regular Symbol'!W152="","",'[1]243way_Regular Symbol'!W152)</f>
@@ -15393,7 +16689,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15406,19 +16702,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G1" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15439,15 +16735,15 @@
       </c>
       <c r="E2" s="5">
         <f>[1]OverView!E51</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5">
         <f>[1]OverView!F51</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G2" s="5">
         <f>[1]OverView!G51</f>
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15468,15 +16764,15 @@
       </c>
       <c r="E3" s="5">
         <f>[1]OverView!E52</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5">
         <f>[1]OverView!F52</f>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5">
         <f>[1]OverView!G52</f>
-        <v>800</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -15497,15 +16793,15 @@
       </c>
       <c r="E4" s="5">
         <f>[1]OverView!E53</f>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <f>[1]OverView!F53</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5">
         <f>[1]OverView!G53</f>
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -15526,15 +16822,15 @@
       </c>
       <c r="E5" s="5">
         <f>[1]OverView!E54</f>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5">
         <f>[1]OverView!F54</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" s="5">
         <f>[1]OverView!G54</f>
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -15555,15 +16851,15 @@
       </c>
       <c r="E6" s="5">
         <f>[1]OverView!E55</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5">
         <f>[1]OverView!F55</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5">
         <f>[1]OverView!G55</f>
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -15584,11 +16880,11 @@
       </c>
       <c r="E7" s="5">
         <f>[1]OverView!E56</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5">
         <f>[1]OverView!F56</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5">
         <f>[1]OverView!G56</f>
@@ -15613,11 +16909,11 @@
       </c>
       <c r="E8" s="5">
         <f>[1]OverView!E57</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5">
         <f>[1]OverView!F57</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5">
         <f>[1]OverView!G57</f>
@@ -15650,7 +16946,7 @@
       </c>
       <c r="G9" s="5">
         <f>[1]OverView!G58</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -15679,7 +16975,7 @@
       </c>
       <c r="G10" s="5">
         <f>[1]OverView!G59</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -15708,7 +17004,7 @@
       </c>
       <c r="G11" s="5">
         <f>[1]OverView!G60</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -15790,8 +17086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F701735-9064-7245-842C-37046A577D01}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15819,15 +17115,15 @@
       </c>
       <c r="B2" s="7">
         <f>[1]權重表!B2</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2" s="7">
         <f>[1]權重表!C2</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7">
         <f>[1]權重表!D2</f>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -15856,15 +17152,15 @@
       </c>
       <c r="B6" s="7">
         <f>[1]權重表!B6</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7">
         <f>[1]權重表!C6</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
         <f>[1]權重表!D6</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15884,31 +17180,31 @@
       </c>
       <c r="B11" s="7">
         <f>[1]權重表!B11</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="7">
         <f>[1]權重表!C11</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
         <f>[1]權重表!D11</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7">
         <f>[1]權重表!E11</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7">
         <f>[1]權重表!F11</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7">
         <f>[1]權重表!G11</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7">
         <f>[1]權重表!H11</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
         <f>[1]權重表!I11</f>
@@ -15925,31 +17221,31 @@
       </c>
       <c r="B12" s="7">
         <f>[1]權重表!B12</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C12" s="7">
         <f>[1]權重表!C12</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D12" s="7">
         <f>[1]權重表!D12</f>
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E12" s="7">
         <f>[1]權重表!E12</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F12" s="7">
         <f>[1]權重表!F12</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G12" s="7">
         <f>[1]權重表!G12</f>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="H12" s="7">
         <f>[1]權重表!H12</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="7">
         <f>[1]權重表!I12</f>
@@ -15966,31 +17262,31 @@
       </c>
       <c r="B13" s="7">
         <f>[1]權重表!B13</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <f>[1]權重表!C13</f>
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
         <f>[1]權重表!D13</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7">
         <f>[1]權重表!E13</f>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F13" s="7">
         <f>[1]權重表!F13</f>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7">
         <f>[1]權重表!G13</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7">
         <f>[1]權重表!H13</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
         <f>[1]權重表!I13</f>
@@ -16020,31 +17316,30 @@
       </c>
       <c r="B18" s="7">
         <f>[1]權重表!B18</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
         <f>[1]權重表!C18</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
         <f>[1]權重表!D18</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7">
         <f>[1]權重表!E18</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F18" s="7">
         <f>[1]權重表!F18</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7">
         <f>[1]權重表!G18</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <f>[1]權重表!H18</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
         <f>[1]權重表!I18</f>
@@ -16061,31 +17356,31 @@
       </c>
       <c r="B19" s="7">
         <f>[1]權重表!B19</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C19" s="7">
         <f>[1]權重表!C19</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D19" s="7">
         <f>[1]權重表!D19</f>
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E19" s="7">
         <f>[1]權重表!E19</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7">
         <f>[1]權重表!F19</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G19" s="7">
         <f>[1]權重表!G19</f>
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="H19" s="7">
         <f>[1]權重表!H19</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="7">
         <f>[1]權重表!I19</f>
@@ -16102,19 +17397,19 @@
       </c>
       <c r="B20" s="7">
         <f>[1]權重表!B20</f>
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C20" s="7">
         <f>[1]權重表!C20</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7">
         <f>[1]權重表!D20</f>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E20" s="7">
         <f>[1]權重表!E20</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7">
         <f>[1]權重表!F20</f>
@@ -16126,7 +17421,7 @@
       </c>
       <c r="H20" s="7">
         <f>[1]權重表!H20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <f>[1]權重表!I20</f>
@@ -16190,27 +17485,27 @@
       </c>
       <c r="B25" s="7">
         <f>[1]權重表!B25</f>
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C25" s="7">
         <f>[1]權重表!C25</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
         <f>[1]權重表!D25</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E25" s="7">
         <f>[1]權重表!E25</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7">
         <f>[1]權重表!F25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="7">
         <f>[1]權重表!G25</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -16237,24 +17532,24 @@
         <v>14</v>
       </c>
       <c r="B30" s="7">
-        <f>[1]權重表!B30</f>
-        <v>2</v>
+        <f>B24*2</f>
+        <v>4</v>
       </c>
       <c r="C30" s="7">
-        <f>[1]權重表!C30</f>
-        <v>3</v>
+        <f t="shared" ref="C30:F30" si="0">C24*2</f>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <f>[1]權重表!D30</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="E30" s="7">
-        <f>[1]權重表!E30</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F30" s="7">
-        <f>[1]權重表!F30</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G30" s="7">
         <f>[1]權重表!G30</f>
@@ -16267,23 +17562,23 @@
       </c>
       <c r="B31" s="7">
         <f>[1]權重表!B31</f>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7">
         <f>[1]權重表!C31</f>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D31" s="7">
         <f>[1]權重表!D31</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E31" s="7">
         <f>[1]權重表!E31</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7">
         <f>[1]權重表!F31</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" s="7">
         <f>[1]權重表!G31</f>
@@ -16307,15 +17602,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4A6E55-804B-BF4F-8CE5-E837D97CFF33}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <f>IF([2]OverView!B63="","",[2]OverView!B63)</f>
         <v>1</v>
@@ -16339,6 +17634,12 @@
       <c r="F1" s="1">
         <f>IF([2]OverView!G63="","",[2]OverView!G63)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="I3">
+        <f>2189*0.72</f>
+        <v>1576.08</v>
       </c>
     </row>
   </sheetData>
